--- a/ANGLE/20.xlsx
+++ b/ANGLE/20.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="954">
   <si>
     <t>电话号码</t>
   </si>
@@ -25,3704 +24,2867 @@
     <t>number</t>
   </si>
   <si>
-    <t>13913599456</t>
-  </si>
-  <si>
-    <t>13812715940</t>
-  </si>
-  <si>
-    <t>13771652222</t>
-  </si>
-  <si>
-    <t>13915708680</t>
-  </si>
-  <si>
-    <t>18662155154</t>
-  </si>
-  <si>
-    <t>13771908731</t>
-  </si>
-  <si>
-    <t>13656258128</t>
-  </si>
-  <si>
-    <t>13921964849</t>
-  </si>
-  <si>
-    <t>13906133241</t>
-  </si>
-  <si>
-    <t>13901556122</t>
-  </si>
-  <si>
-    <t>13806135990</t>
-  </si>
-  <si>
-    <t>15506199348</t>
-  </si>
-  <si>
-    <t>13915532019</t>
-  </si>
-  <si>
-    <t>13915567251</t>
-  </si>
-  <si>
-    <t>13771724555</t>
-  </si>
-  <si>
-    <t>15162634782</t>
-  </si>
-  <si>
-    <t>13584287963</t>
-  </si>
-  <si>
-    <t>13962538383</t>
-  </si>
-  <si>
-    <t>15895518586</t>
-  </si>
-  <si>
-    <t>13906255089</t>
-  </si>
-  <si>
-    <t>13951117987</t>
-  </si>
-  <si>
-    <t>13004514511</t>
-  </si>
-  <si>
-    <t>13301552818</t>
-  </si>
-  <si>
-    <t>13952408485</t>
-  </si>
-  <si>
-    <t>13606257712</t>
-  </si>
-  <si>
-    <t>15962260094</t>
-  </si>
-  <si>
-    <t>15962567368</t>
-  </si>
-  <si>
-    <t>13616254716</t>
-  </si>
-  <si>
-    <t>13962541671</t>
-  </si>
-  <si>
-    <t>13862285653</t>
-  </si>
-  <si>
-    <t>13004593226</t>
-  </si>
-  <si>
-    <t>13951100042</t>
-  </si>
-  <si>
-    <t>13962580858</t>
-  </si>
-  <si>
-    <t>13962572772</t>
-  </si>
-  <si>
-    <t>13913778787</t>
-  </si>
-  <si>
-    <t>13092609777</t>
-  </si>
-  <si>
-    <t>13906241232</t>
-  </si>
-  <si>
-    <t>13771736564</t>
-  </si>
-  <si>
-    <t>15962603649</t>
-  </si>
-  <si>
-    <t>13915523528</t>
-  </si>
-  <si>
-    <t>15050448068</t>
-  </si>
-  <si>
-    <t>15962260488</t>
-  </si>
-  <si>
-    <t>13057468731</t>
-  </si>
-  <si>
-    <t>13951101125</t>
-  </si>
-  <si>
-    <t>13506136815</t>
-  </si>
-  <si>
-    <t>13812669540</t>
-  </si>
-  <si>
-    <t>13812715555</t>
-  </si>
-  <si>
-    <t>13584884534</t>
-  </si>
-  <si>
-    <t>13771816919</t>
-  </si>
-  <si>
-    <t>13451731116</t>
-  </si>
-  <si>
-    <t>18962530539</t>
-  </si>
-  <si>
-    <t>13951186286</t>
-  </si>
-  <si>
-    <t>18913098108</t>
-  </si>
-  <si>
-    <t>13771993215</t>
-  </si>
-  <si>
-    <t>13706225008</t>
-  </si>
-  <si>
-    <t>13801557036</t>
-  </si>
-  <si>
-    <t>13776268008</t>
-  </si>
-  <si>
-    <t>13915692132</t>
-  </si>
-  <si>
-    <t>13913258294</t>
-  </si>
-  <si>
-    <t>13013868483</t>
-  </si>
-  <si>
-    <t>13962535809</t>
-  </si>
-  <si>
-    <t>15995406807</t>
-  </si>
-  <si>
-    <t>18896701964</t>
-  </si>
-  <si>
-    <t>13606228353</t>
-  </si>
-  <si>
-    <t>18551190824</t>
-  </si>
-  <si>
-    <t>13812795795</t>
-  </si>
-  <si>
-    <t>13862037820</t>
-  </si>
-  <si>
-    <t>13912725000</t>
-  </si>
-  <si>
-    <t>18901544433</t>
-  </si>
-  <si>
-    <t>13338011665</t>
-  </si>
-  <si>
-    <t>13584842361</t>
-  </si>
-  <si>
-    <t>18913096173</t>
-  </si>
-  <si>
-    <t>13915535382</t>
-  </si>
-  <si>
-    <t>18260222486</t>
-  </si>
-  <si>
-    <t>13862588288</t>
-  </si>
-  <si>
-    <t>15051474438</t>
-  </si>
-  <si>
-    <t>13776161995</t>
-  </si>
-  <si>
-    <t>13306202048</t>
-  </si>
-  <si>
-    <t>13862224388</t>
-  </si>
-  <si>
-    <t>13506257775</t>
-  </si>
-  <si>
-    <t>13773267390</t>
-  </si>
-  <si>
-    <t>13962117819</t>
-  </si>
-  <si>
-    <t>13913135850</t>
-  </si>
-  <si>
-    <t>13771659666</t>
-  </si>
-  <si>
-    <t>13913598368</t>
-  </si>
-  <si>
-    <t>13179603465</t>
-  </si>
-  <si>
-    <t>13913063668</t>
-  </si>
-  <si>
-    <t>13222990298</t>
-  </si>
-  <si>
-    <t>13814815668</t>
-  </si>
-  <si>
-    <t>18962105225</t>
-  </si>
-  <si>
-    <t>13913700359</t>
-  </si>
-  <si>
-    <t>13962595880</t>
-  </si>
-  <si>
-    <t>13962229099</t>
-  </si>
-  <si>
-    <t>13506256810</t>
-  </si>
-  <si>
-    <t>13952444777</t>
-  </si>
-  <si>
-    <t>13962215088</t>
-  </si>
-  <si>
-    <t>13962521650</t>
-  </si>
-  <si>
-    <t>13962555766</t>
-  </si>
-  <si>
-    <t>15250267267</t>
-  </si>
-  <si>
-    <t>13913622660</t>
-  </si>
-  <si>
-    <t>13906240779</t>
-  </si>
-  <si>
-    <t>13906250545</t>
-  </si>
-  <si>
-    <t>15306255515</t>
-  </si>
-  <si>
-    <t>13328008500</t>
-  </si>
-  <si>
-    <t>13773062552</t>
-  </si>
-  <si>
-    <t>13656208959</t>
-  </si>
-  <si>
-    <t>13584266416</t>
-  </si>
-  <si>
-    <t>13506250844</t>
-  </si>
-  <si>
-    <t>15995403606</t>
-  </si>
-  <si>
-    <t>13706250880</t>
-  </si>
-  <si>
-    <t>13913797328</t>
-  </si>
-  <si>
-    <t>13092649668</t>
-  </si>
-  <si>
-    <t>13915586019</t>
-  </si>
-  <si>
-    <t>13506215379</t>
-  </si>
-  <si>
-    <t>13914034245</t>
-  </si>
-  <si>
-    <t>13913141493</t>
-  </si>
-  <si>
-    <t>13862093876</t>
-  </si>
-  <si>
-    <t>13913657643</t>
-  </si>
-  <si>
-    <t>13809063487</t>
-  </si>
-  <si>
-    <t>13004561685</t>
-  </si>
-  <si>
-    <t>15062578658</t>
-  </si>
-  <si>
-    <t>13862034099</t>
-  </si>
-  <si>
-    <t>13962548399</t>
-  </si>
-  <si>
-    <t>13382136675</t>
-  </si>
-  <si>
-    <t>13915492922</t>
-  </si>
-  <si>
-    <t>13862587600</t>
-  </si>
-  <si>
-    <t>15862587218</t>
-  </si>
-  <si>
-    <t>13606255236</t>
-  </si>
-  <si>
-    <t>13812783448</t>
-  </si>
-  <si>
-    <t>13584435618</t>
-  </si>
-  <si>
-    <t>13506205914</t>
-  </si>
-  <si>
-    <t>13506219003</t>
-  </si>
-  <si>
-    <t>13915685832</t>
-  </si>
-  <si>
-    <t>13912706666</t>
-  </si>
-  <si>
-    <t>13912777126</t>
-  </si>
-  <si>
-    <t>15162522332</t>
-  </si>
-  <si>
-    <t>18913070095</t>
-  </si>
-  <si>
-    <t>13901550210</t>
-  </si>
-  <si>
-    <t>13506250036</t>
-  </si>
-  <si>
-    <t>13901550656</t>
-  </si>
-  <si>
-    <t>13962539808</t>
-  </si>
-  <si>
-    <t>13601561316</t>
-  </si>
-  <si>
-    <t>13862047601</t>
-  </si>
-  <si>
-    <t>13861319776</t>
-  </si>
-  <si>
-    <t>13913086053</t>
-  </si>
-  <si>
-    <t>13861315087</t>
-  </si>
-  <si>
-    <t>13814562089</t>
-  </si>
-  <si>
-    <t>13814934881</t>
-  </si>
-  <si>
-    <t>13912611314</t>
-  </si>
-  <si>
-    <t>13511634555</t>
-  </si>
-  <si>
-    <t>13912760888</t>
-  </si>
-  <si>
-    <t>13151192999</t>
-  </si>
-  <si>
-    <t>15850003976</t>
-  </si>
-  <si>
-    <t>13862520876</t>
-  </si>
-  <si>
-    <t>13913598820</t>
-  </si>
-  <si>
-    <t>13776166815</t>
-  </si>
-  <si>
-    <t>13915707578</t>
-  </si>
-  <si>
-    <t>13812692924</t>
-  </si>
-  <si>
-    <t>13906236222</t>
-  </si>
-  <si>
-    <t>13402658749</t>
-  </si>
-  <si>
-    <t>13776054123</t>
-  </si>
-  <si>
-    <t>13092662836</t>
-  </si>
-  <si>
-    <t>13962599220</t>
-  </si>
-  <si>
-    <t>13913705677</t>
-  </si>
-  <si>
-    <t>15962127984</t>
-  </si>
-  <si>
-    <t>18606279892</t>
-  </si>
-  <si>
-    <t>13584422898</t>
-  </si>
-  <si>
-    <t>13921962809</t>
-  </si>
-  <si>
-    <t>13914964005</t>
-  </si>
-  <si>
-    <t>13914094582</t>
-  </si>
-  <si>
-    <t>13801547611</t>
-  </si>
-  <si>
-    <t>13771953858</t>
-  </si>
-  <si>
-    <t>13921978016</t>
-  </si>
-  <si>
-    <t>13913116298</t>
-  </si>
-  <si>
-    <t>13506254617</t>
-  </si>
-  <si>
-    <t>18963699997</t>
-  </si>
-  <si>
-    <t>13706258508</t>
-  </si>
-  <si>
-    <t>13812848320</t>
-  </si>
-  <si>
-    <t>13913735191</t>
-  </si>
-  <si>
-    <t>13901563201</t>
-  </si>
-  <si>
-    <t>18552444117</t>
-  </si>
-  <si>
-    <t>13913609123</t>
-  </si>
-  <si>
-    <t>13776087236</t>
-  </si>
-  <si>
-    <t>13962579202</t>
-  </si>
-  <si>
-    <t>13626192086</t>
-  </si>
-  <si>
-    <t>13913164455</t>
-  </si>
-  <si>
-    <t>13913722899</t>
-  </si>
-  <si>
-    <t>13914033676</t>
-  </si>
-  <si>
-    <t>13915577395</t>
-  </si>
-  <si>
-    <t>18915518087</t>
-  </si>
-  <si>
-    <t>13771633998</t>
-  </si>
-  <si>
-    <t>13024566666</t>
-  </si>
-  <si>
-    <t>13506207000</t>
-  </si>
-  <si>
-    <t>13776039706</t>
-  </si>
-  <si>
-    <t>13814837331</t>
-  </si>
-  <si>
-    <t>13814559334</t>
-  </si>
-  <si>
-    <t>13301562511</t>
-  </si>
-  <si>
-    <t>13862266770</t>
-  </si>
-  <si>
-    <t>13915742949</t>
-  </si>
-  <si>
-    <t>13812653925</t>
-  </si>
-  <si>
-    <t>13616271625</t>
-  </si>
-  <si>
-    <t>13776134987</t>
-  </si>
-  <si>
-    <t>13862016342</t>
-  </si>
-  <si>
-    <t>13912727301</t>
-  </si>
-  <si>
-    <t>13862035603</t>
-  </si>
-  <si>
-    <t>13013765756</t>
-  </si>
-  <si>
-    <t>13812770831</t>
-  </si>
-  <si>
-    <t>13915628628</t>
-  </si>
-  <si>
-    <t>13862187010</t>
-  </si>
-  <si>
-    <t>13812633998</t>
-  </si>
-  <si>
-    <t>13962543268</t>
-  </si>
-  <si>
-    <t>13962114441</t>
-  </si>
-  <si>
-    <t>13906206917</t>
-  </si>
-  <si>
-    <t>18862185136</t>
-  </si>
-  <si>
-    <t>13912635235</t>
-  </si>
-  <si>
-    <t>13382508288</t>
-  </si>
-  <si>
-    <t>13222978488</t>
-  </si>
-  <si>
-    <t>13912630850</t>
-  </si>
-  <si>
-    <t>13812780038</t>
-  </si>
-  <si>
-    <t>13912637473</t>
-  </si>
-  <si>
-    <t>13913709555</t>
-  </si>
-  <si>
-    <t>13182661117</t>
-  </si>
-  <si>
-    <t>15298870015</t>
-  </si>
-  <si>
-    <t>15862516698</t>
-  </si>
-  <si>
-    <t>18862349009</t>
-  </si>
-  <si>
-    <t>13913077693</t>
-  </si>
-  <si>
-    <t>18915509699</t>
-  </si>
-  <si>
-    <t>13013776660</t>
-  </si>
-  <si>
-    <t>13913060017</t>
-  </si>
-  <si>
-    <t>13814811828</t>
-  </si>
-  <si>
-    <t>13862216980</t>
-  </si>
-  <si>
-    <t>13862512889</t>
-  </si>
-  <si>
-    <t>15262666818</t>
-  </si>
-  <si>
-    <t>13511602109</t>
-  </si>
-  <si>
-    <t>13771883640</t>
-  </si>
-  <si>
-    <t>15995870248</t>
-  </si>
-  <si>
-    <t>13606213068</t>
-  </si>
-  <si>
-    <t>13913050709</t>
-  </si>
-  <si>
-    <t>13405013066</t>
-  </si>
-  <si>
-    <t>13901551070</t>
-  </si>
-  <si>
-    <t>13806228100</t>
-  </si>
-  <si>
-    <t>13656201276</t>
-  </si>
-  <si>
-    <t>18501555050</t>
-  </si>
-  <si>
-    <t>13962576799</t>
-  </si>
-  <si>
-    <t>13862003152</t>
-  </si>
-  <si>
-    <t>13606258133</t>
-  </si>
-  <si>
-    <t>13915504622</t>
-  </si>
-  <si>
-    <t>13776203298</t>
-  </si>
-  <si>
-    <t>13601550566</t>
-  </si>
-  <si>
-    <t>13328011051</t>
-  </si>
-  <si>
-    <t>13913089890</t>
-  </si>
-  <si>
-    <t>18551296528</t>
-  </si>
-  <si>
-    <t>15862589292</t>
-  </si>
-  <si>
-    <t>13773289112</t>
-  </si>
-  <si>
-    <t>13151460181</t>
-  </si>
-  <si>
-    <t>13013861560</t>
-  </si>
-  <si>
-    <t>15599063583</t>
-  </si>
-  <si>
-    <t>13812711191</t>
-  </si>
-  <si>
-    <t>18913178542</t>
-  </si>
-  <si>
-    <t>13601544222</t>
-  </si>
-  <si>
-    <t>13914022289</t>
-  </si>
-  <si>
-    <t>13511626974</t>
-  </si>
-  <si>
-    <t>15151614230</t>
-  </si>
-  <si>
-    <t>13584840777</t>
-  </si>
-  <si>
-    <t>13776086222</t>
-  </si>
-  <si>
-    <t>13862200621</t>
-  </si>
-  <si>
-    <t>13706251186</t>
-  </si>
-  <si>
-    <t>13862072221</t>
-  </si>
-  <si>
-    <t>15962616831</t>
-  </si>
-  <si>
-    <t>13962561675</t>
-  </si>
-  <si>
-    <t>15150403527</t>
-  </si>
-  <si>
-    <t>13390862833</t>
-  </si>
-  <si>
-    <t>13646253879</t>
-  </si>
-  <si>
-    <t>13812752270</t>
-  </si>
-  <si>
-    <t>13771852477</t>
-  </si>
-  <si>
-    <t>15850339197</t>
-  </si>
-  <si>
-    <t>13625296508</t>
-  </si>
-  <si>
-    <t>15050138838</t>
-  </si>
-  <si>
-    <t>13913067758</t>
-  </si>
-  <si>
-    <t>13862163812</t>
-  </si>
-  <si>
-    <t>13625270465</t>
-  </si>
-  <si>
-    <t>13706252851</t>
-  </si>
-  <si>
-    <t>13913747920</t>
-  </si>
-  <si>
-    <t>13616208900</t>
-  </si>
-  <si>
-    <t>13706226700</t>
-  </si>
-  <si>
-    <t>13771864641</t>
-  </si>
-  <si>
-    <t>13814829868</t>
-  </si>
-  <si>
-    <t>13912713570</t>
-  </si>
-  <si>
-    <t>15906262885</t>
-  </si>
-  <si>
-    <t>13771801951</t>
-  </si>
-  <si>
-    <t>15950019049</t>
-  </si>
-  <si>
-    <t>13182661910</t>
-  </si>
-  <si>
-    <t>15862655017</t>
-  </si>
-  <si>
-    <t>13806228012</t>
-  </si>
-  <si>
-    <t>13041817067</t>
-  </si>
-  <si>
-    <t>13913597050</t>
-  </si>
-  <si>
-    <t>15151512195</t>
-  </si>
-  <si>
-    <t>15851660018</t>
-  </si>
-  <si>
-    <t>13906208922</t>
-  </si>
-  <si>
-    <t>13013893873</t>
-  </si>
-  <si>
-    <t>13218162857</t>
-  </si>
-  <si>
-    <t>13912786930</t>
-  </si>
-  <si>
-    <t>13013768187</t>
-  </si>
-  <si>
-    <t>13912720571</t>
-  </si>
-  <si>
-    <t>13771732905</t>
-  </si>
-  <si>
-    <t>13771674666</t>
-  </si>
-  <si>
-    <t>13913112161</t>
-  </si>
-  <si>
-    <t>13606256277</t>
-  </si>
-  <si>
-    <t>13951133966</t>
-  </si>
-  <si>
-    <t>13913268710</t>
-  </si>
-  <si>
-    <t>13912775793</t>
-  </si>
-  <si>
-    <t>13862534491</t>
-  </si>
-  <si>
-    <t>13906243402</t>
-  </si>
-  <si>
-    <t>13962467869</t>
-  </si>
-  <si>
-    <t>13776156705</t>
-  </si>
-  <si>
-    <t>13812953118</t>
-  </si>
-  <si>
-    <t>13962141363</t>
-  </si>
-  <si>
-    <t>13913608221</t>
-  </si>
-  <si>
-    <t>13815284198</t>
-  </si>
-  <si>
-    <t>13773233378</t>
-  </si>
-  <si>
-    <t>13862001368</t>
-  </si>
-  <si>
-    <t>13906243671</t>
-  </si>
-  <si>
-    <t>13812723586</t>
-  </si>
-  <si>
-    <t>13913163186</t>
-  </si>
-  <si>
-    <t>15962562921</t>
-  </si>
-  <si>
-    <t>13771854848</t>
-  </si>
-  <si>
-    <t>13405131523</t>
-  </si>
-  <si>
-    <t>13812701329</t>
-  </si>
-  <si>
-    <t>18626104188</t>
-  </si>
-  <si>
-    <t>15306255361</t>
-  </si>
-  <si>
-    <t>15051547539</t>
-  </si>
-  <si>
-    <t>18962228366</t>
-  </si>
-  <si>
-    <t>13951105867</t>
-  </si>
-  <si>
-    <t>13773253837</t>
-  </si>
-  <si>
-    <t>13814883055</t>
-  </si>
-  <si>
-    <t>13601549236</t>
-  </si>
-  <si>
-    <t>13806221274</t>
-  </si>
-  <si>
-    <t>13776108285</t>
-  </si>
-  <si>
-    <t>18896573037</t>
-  </si>
-  <si>
-    <t>18900611358</t>
-  </si>
-  <si>
-    <t>13913560627</t>
-  </si>
-  <si>
-    <t>15995480733</t>
-  </si>
-  <si>
-    <t>13914993968</t>
-  </si>
-  <si>
-    <t>13773287438</t>
-  </si>
-  <si>
-    <t>13776163520</t>
-  </si>
-  <si>
-    <t>13862013766</t>
-  </si>
-  <si>
-    <t>13913066461</t>
-  </si>
-  <si>
-    <t>13732656188</t>
-  </si>
-  <si>
-    <t>13912636365</t>
-  </si>
-  <si>
-    <t>15358810863</t>
-  </si>
-  <si>
-    <t>13921961601</t>
-  </si>
-  <si>
-    <t>15995889577</t>
-  </si>
-  <si>
-    <t>13812739660</t>
-  </si>
-  <si>
-    <t>18962147580</t>
-  </si>
-  <si>
-    <t>13625298237</t>
-  </si>
-  <si>
-    <t>13812677967</t>
-  </si>
-  <si>
-    <t>13621564183</t>
-  </si>
-  <si>
-    <t>15962169748</t>
-  </si>
-  <si>
-    <t>13914031446</t>
-  </si>
-  <si>
-    <t>13962103294</t>
-  </si>
-  <si>
-    <t>13706221530</t>
-  </si>
-  <si>
-    <t>13773021892</t>
-  </si>
-  <si>
-    <t>15950917620</t>
-  </si>
-  <si>
-    <t>18915629400</t>
-  </si>
-  <si>
-    <t>13913609300</t>
-  </si>
-  <si>
-    <t>13506131920</t>
-  </si>
-  <si>
-    <t>13806258738</t>
-  </si>
-  <si>
-    <t>13656247935</t>
-  </si>
-  <si>
-    <t>13511611777</t>
-  </si>
-  <si>
-    <t>18962134606</t>
-  </si>
-  <si>
-    <t>13913163499</t>
-  </si>
-  <si>
-    <t>15806226543</t>
-  </si>
-  <si>
-    <t>13606220731</t>
-  </si>
-  <si>
-    <t>13862220216</t>
-  </si>
-  <si>
-    <t>13052833058</t>
-  </si>
-  <si>
-    <t>13776147637</t>
-  </si>
-  <si>
-    <t>13812622486</t>
-  </si>
-  <si>
-    <t>13913050189</t>
-  </si>
-  <si>
-    <t>13862113530</t>
-  </si>
-  <si>
-    <t>15950088222</t>
-  </si>
-  <si>
-    <t>13962576192</t>
-  </si>
-  <si>
-    <t>13862565548</t>
-  </si>
-  <si>
-    <t>13962339332</t>
-  </si>
-  <si>
-    <t>15851520083</t>
-  </si>
-  <si>
-    <t>13962505202</t>
-  </si>
-  <si>
-    <t>15306256967</t>
-  </si>
-  <si>
-    <t>13812651423</t>
-  </si>
-  <si>
-    <t>13405020240</t>
-  </si>
-  <si>
-    <t>13861305551</t>
-  </si>
-  <si>
-    <t>13701567566</t>
-  </si>
-  <si>
-    <t>13776035345</t>
-  </si>
-  <si>
-    <t>13174111008</t>
-  </si>
-  <si>
-    <t>13338015882</t>
-  </si>
-  <si>
-    <t>13809051939</t>
-  </si>
-  <si>
-    <t>13962525062</t>
-  </si>
-  <si>
-    <t>13063740575</t>
-  </si>
-  <si>
-    <t>13616256108</t>
-  </si>
-  <si>
-    <t>13962589218</t>
-  </si>
-  <si>
-    <t>13962506767</t>
-  </si>
-  <si>
-    <t>13706235818</t>
-  </si>
-  <si>
-    <t>18994306890</t>
-  </si>
-  <si>
-    <t>13913162783</t>
-  </si>
-  <si>
-    <t>15951181195</t>
-  </si>
-  <si>
-    <t>15962347075</t>
-  </si>
-  <si>
-    <t>13962685330</t>
-  </si>
-  <si>
-    <t>13771703756</t>
-  </si>
-  <si>
-    <t>13656200574</t>
-  </si>
-  <si>
-    <t>18806134461</t>
-  </si>
-  <si>
-    <t>13771823352</t>
-  </si>
-  <si>
-    <t>13706268918</t>
-  </si>
-  <si>
-    <t>13912738215</t>
-  </si>
-  <si>
-    <t>13771925151</t>
-  </si>
-  <si>
-    <t>13812771950</t>
-  </si>
-  <si>
-    <t>13912718115</t>
-  </si>
-  <si>
-    <t>13912716336</t>
-  </si>
-  <si>
-    <t>18606225202</t>
-  </si>
-  <si>
-    <t>13952406080</t>
-  </si>
-  <si>
-    <t>13962540368</t>
-  </si>
-  <si>
-    <t>13806227627</t>
-  </si>
-  <si>
-    <t>18601430990</t>
-  </si>
-  <si>
-    <t>15190572568</t>
-  </si>
-  <si>
-    <t>18625200875</t>
-  </si>
-  <si>
-    <t>13906256861</t>
-  </si>
-  <si>
-    <t>15862423861</t>
-  </si>
-  <si>
-    <t>15995775878</t>
-  </si>
-  <si>
-    <t>13913707299</t>
-  </si>
-  <si>
-    <t>13914959613</t>
-  </si>
-  <si>
-    <t>13812779770</t>
-  </si>
-  <si>
-    <t>13912711711</t>
-  </si>
-  <si>
-    <t>13812986198</t>
-  </si>
-  <si>
-    <t>13962226208</t>
-  </si>
-  <si>
-    <t>15962550466</t>
-  </si>
-  <si>
-    <t>13914086172</t>
-  </si>
-  <si>
-    <t>13915773955</t>
-  </si>
-  <si>
-    <t>13915442860</t>
-  </si>
-  <si>
-    <t>13913501916</t>
-  </si>
-  <si>
-    <t>13906258108</t>
-  </si>
-  <si>
-    <t>13511615962</t>
-  </si>
-  <si>
-    <t>13862505507</t>
-  </si>
-  <si>
-    <t>13814816680</t>
-  </si>
-  <si>
-    <t>13606222312</t>
-  </si>
-  <si>
-    <t>13862504146</t>
-  </si>
-  <si>
-    <t>13306241083</t>
-  </si>
-  <si>
-    <t>13901558484</t>
-  </si>
-  <si>
-    <t>13063862504</t>
-  </si>
-  <si>
-    <t>15950169183</t>
-  </si>
-  <si>
-    <t>13584253818</t>
-  </si>
-  <si>
-    <t>13812612666</t>
-  </si>
-  <si>
-    <t>18114529073</t>
-  </si>
-  <si>
-    <t>13092661531</t>
-  </si>
-  <si>
-    <t>15306256779</t>
-  </si>
-  <si>
-    <t>13584419044</t>
-  </si>
-  <si>
-    <t>13771666188</t>
-  </si>
-  <si>
-    <t>13913782332</t>
-  </si>
-  <si>
-    <t>18913065676</t>
-  </si>
-  <si>
-    <t>13862160298</t>
-  </si>
-  <si>
-    <t>15190032366</t>
-  </si>
-  <si>
-    <t>13914015921</t>
-  </si>
-  <si>
-    <t>13625281706</t>
-  </si>
-  <si>
-    <t>13773220808</t>
-  </si>
-  <si>
-    <t>13771666386</t>
-  </si>
-  <si>
-    <t>15250022072</t>
-  </si>
-  <si>
-    <t>13862076960</t>
-  </si>
-  <si>
-    <t>13584402601</t>
-  </si>
-  <si>
-    <t>13862003041</t>
-  </si>
-  <si>
-    <t>15906258699</t>
-  </si>
-  <si>
-    <t>13814959814</t>
-  </si>
-  <si>
-    <t>13511609040</t>
-  </si>
-  <si>
-    <t>13814835304</t>
-  </si>
-  <si>
-    <t>13912634533</t>
-  </si>
-  <si>
-    <t>13915465378</t>
-  </si>
-  <si>
-    <t>15306134103</t>
-  </si>
-  <si>
-    <t>13906207451</t>
-  </si>
-  <si>
-    <t>15651100355</t>
-  </si>
-  <si>
-    <t>13506135299</t>
-  </si>
-  <si>
-    <t>13862515987</t>
-  </si>
-  <si>
-    <t>15952417611</t>
-  </si>
-  <si>
-    <t>18012664125</t>
-  </si>
-  <si>
-    <t>18626272837</t>
-  </si>
-  <si>
-    <t>13584285815</t>
-  </si>
-  <si>
-    <t>15151599698</t>
-  </si>
-  <si>
-    <t>13862251349</t>
-  </si>
-  <si>
-    <t>13773275386</t>
-  </si>
-  <si>
-    <t>13814886145</t>
-  </si>
-  <si>
-    <t>13812991252</t>
-  </si>
-  <si>
-    <t>13776021766</t>
-  </si>
-  <si>
-    <t>13913715777</t>
-  </si>
-  <si>
-    <t>13913649549</t>
-  </si>
-  <si>
-    <t>13776270212</t>
-  </si>
-  <si>
-    <t>13771696839</t>
-  </si>
-  <si>
-    <t>13701553900</t>
-  </si>
-  <si>
-    <t>13862544725</t>
-  </si>
-  <si>
-    <t>13771743107</t>
-  </si>
-  <si>
-    <t>13912602939</t>
-  </si>
-  <si>
-    <t>13606209997</t>
-  </si>
-  <si>
-    <t>13773276108</t>
-  </si>
-  <si>
-    <t>13174117689</t>
-  </si>
-  <si>
-    <t>13913726978</t>
-  </si>
-  <si>
-    <t>18662119132</t>
-  </si>
-  <si>
-    <t>13814868308</t>
-  </si>
-  <si>
-    <t>13806220586</t>
-  </si>
-  <si>
-    <t>18994301922</t>
-  </si>
-  <si>
-    <t>13306242158</t>
-  </si>
-  <si>
-    <t>13773101128</t>
-  </si>
-  <si>
-    <t>15150428301</t>
-  </si>
-  <si>
-    <t>13912719860</t>
-  </si>
-  <si>
-    <t>13301562708</t>
-  </si>
-  <si>
-    <t>13004562926</t>
-  </si>
-  <si>
-    <t>13506253885</t>
-  </si>
-  <si>
-    <t>18051217617</t>
-  </si>
-  <si>
-    <t>13812728808</t>
-  </si>
-  <si>
-    <t>13812715066</t>
-  </si>
-  <si>
-    <t>13013839550</t>
-  </si>
-  <si>
-    <t>13382500365</t>
-  </si>
-  <si>
-    <t>13962692508</t>
-  </si>
-  <si>
-    <t>13584410010</t>
-  </si>
-  <si>
-    <t>13913742246</t>
-  </si>
-  <si>
-    <t>13773252516</t>
-  </si>
-  <si>
-    <t>15312158108</t>
-  </si>
-  <si>
-    <t>13901551048</t>
-  </si>
-  <si>
-    <t>13812767488</t>
-  </si>
-  <si>
-    <t>13913712359</t>
-  </si>
-  <si>
-    <t>15051757027</t>
-  </si>
-  <si>
-    <t>13862109946</t>
-  </si>
-  <si>
-    <t>13405166305</t>
-  </si>
-  <si>
-    <t>13073368625</t>
-  </si>
-  <si>
-    <t>13013775180</t>
-  </si>
-  <si>
-    <t>13140936660</t>
-  </si>
-  <si>
-    <t>13776168860</t>
-  </si>
-  <si>
-    <t>13906207761</t>
-  </si>
-  <si>
-    <t>15862380884</t>
-  </si>
-  <si>
-    <t>13606208338</t>
-  </si>
-  <si>
-    <t>13962290150</t>
-  </si>
-  <si>
-    <t>13812653857</t>
-  </si>
-  <si>
-    <t>18962261120</t>
-  </si>
-  <si>
-    <t>13814810156</t>
-  </si>
-  <si>
-    <t>13913088066</t>
-  </si>
-  <si>
-    <t>13913086833</t>
-  </si>
-  <si>
-    <t>13962159449</t>
-  </si>
-  <si>
-    <t>18662240486</t>
-  </si>
-  <si>
-    <t>13092631089</t>
-  </si>
-  <si>
-    <t>13913517538</t>
-  </si>
-  <si>
-    <t>13773269097</t>
-  </si>
-  <si>
-    <t>15190586058</t>
-  </si>
-  <si>
-    <t>13962430756</t>
-  </si>
-  <si>
-    <t>13862060809</t>
-  </si>
-  <si>
-    <t>13962167454</t>
-  </si>
-  <si>
-    <t>13906255093</t>
-  </si>
-  <si>
-    <t>13606224201</t>
-  </si>
-  <si>
-    <t>13205138671</t>
-  </si>
-  <si>
-    <t>13862263552</t>
-  </si>
-  <si>
-    <t>13962282328</t>
-  </si>
-  <si>
-    <t>13382538835</t>
-  </si>
-  <si>
-    <t>13906249285</t>
-  </si>
-  <si>
-    <t>15950161138</t>
-  </si>
-  <si>
-    <t>13962587515</t>
-  </si>
-  <si>
-    <t>15962399897</t>
-  </si>
-  <si>
-    <t>13270466558</t>
-  </si>
-  <si>
-    <t>13606208621</t>
-  </si>
-  <si>
-    <t>13862519080</t>
-  </si>
-  <si>
-    <t>15062431320</t>
-  </si>
-  <si>
-    <t>15151607955</t>
-  </si>
-  <si>
-    <t>13616272777</t>
-  </si>
-  <si>
-    <t>13952403769</t>
-  </si>
-  <si>
-    <t>13295162050</t>
-  </si>
-  <si>
-    <t>15050373555</t>
-  </si>
-  <si>
-    <t>13912738039</t>
-  </si>
-  <si>
-    <t>13606251122</t>
-  </si>
-  <si>
-    <t>15850154809</t>
-  </si>
-  <si>
-    <t>13951180688</t>
-  </si>
-  <si>
-    <t>15365390398</t>
-  </si>
-  <si>
-    <t>13506254758</t>
-  </si>
-  <si>
-    <t>15250188494</t>
-  </si>
-  <si>
-    <t>15950096595</t>
-  </si>
-  <si>
-    <t>18962502568</t>
-  </si>
-  <si>
-    <t>13506251569</t>
-  </si>
-  <si>
-    <t>13914079576</t>
-  </si>
-  <si>
-    <t>13915416720</t>
-  </si>
-  <si>
-    <t>13914003423</t>
-  </si>
-  <si>
-    <t>13451971644</t>
-  </si>
-  <si>
-    <t>15306259155</t>
-  </si>
-  <si>
-    <t>13913774125</t>
-  </si>
-  <si>
-    <t>13862169576</t>
-  </si>
-  <si>
-    <t>13862187353</t>
-  </si>
-  <si>
-    <t>13862573501</t>
-  </si>
-  <si>
-    <t>15995997648</t>
-  </si>
-  <si>
-    <t>13862103164</t>
-  </si>
-  <si>
-    <t>15151523148</t>
-  </si>
-  <si>
-    <t>13814865361</t>
-  </si>
-  <si>
-    <t>13862508169</t>
-  </si>
-  <si>
-    <t>13771693297</t>
-  </si>
-  <si>
-    <t>13812735675</t>
-  </si>
-  <si>
-    <t>13962521978</t>
-  </si>
-  <si>
-    <t>13862070945</t>
-  </si>
-  <si>
-    <t>15995701070</t>
-  </si>
-  <si>
-    <t>13913721333</t>
-  </si>
-  <si>
-    <t>13092666915</t>
-  </si>
-  <si>
-    <t>13862421003</t>
-  </si>
-  <si>
-    <t>15962224343</t>
-  </si>
-  <si>
-    <t>13962131058</t>
-  </si>
-  <si>
-    <t>13621574038</t>
-  </si>
-  <si>
-    <t>13861303980</t>
-  </si>
-  <si>
-    <t>13270960993</t>
-  </si>
-  <si>
-    <t>13405284378</t>
-  </si>
-  <si>
-    <t>18915569468</t>
-  </si>
-  <si>
-    <t>15306257071</t>
-  </si>
-  <si>
-    <t>15051732899</t>
-  </si>
-  <si>
-    <t>13862086066</t>
-  </si>
-  <si>
-    <t>13862182958</t>
-  </si>
-  <si>
-    <t>15190023805</t>
-  </si>
-  <si>
-    <t>13706250335</t>
-  </si>
-  <si>
-    <t>13806245658</t>
-  </si>
-  <si>
-    <t>13375191951</t>
-  </si>
-  <si>
-    <t>13616259009</t>
-  </si>
-  <si>
-    <t>13625290593</t>
-  </si>
-  <si>
-    <t>13812700500</t>
-  </si>
-  <si>
-    <t>13912796181</t>
-  </si>
-  <si>
-    <t>13962233013</t>
-  </si>
-  <si>
-    <t>13906256527</t>
-  </si>
-  <si>
-    <t>13913180817</t>
-  </si>
-  <si>
-    <t>13862501818</t>
-  </si>
-  <si>
-    <t>13962143889</t>
-  </si>
-  <si>
-    <t>13952411068</t>
-  </si>
-  <si>
-    <t>15962594753</t>
-  </si>
-  <si>
-    <t>15862569860</t>
-  </si>
-  <si>
-    <t>13812636192</t>
-  </si>
-  <si>
-    <t>13901558248</t>
-  </si>
-  <si>
-    <t>13862291288</t>
-  </si>
-  <si>
-    <t>13338013373</t>
-  </si>
-  <si>
-    <t>13862522888</t>
-  </si>
-  <si>
-    <t>13913090799</t>
-  </si>
-  <si>
-    <t>13771713465</t>
-  </si>
-  <si>
-    <t>13806254328</t>
-  </si>
-  <si>
-    <t>13205161203</t>
-  </si>
-  <si>
-    <t>15050413268</t>
-  </si>
-  <si>
-    <t>13773256777</t>
-  </si>
-  <si>
-    <t>15962641374</t>
-  </si>
-  <si>
-    <t>13913106635</t>
-  </si>
-  <si>
-    <t>15150454077</t>
-  </si>
-  <si>
-    <t>13913703537</t>
-  </si>
-  <si>
-    <t>13338706606</t>
-  </si>
-  <si>
-    <t>15306256105</t>
-  </si>
-  <si>
-    <t>13402609493</t>
-  </si>
-  <si>
-    <t>13913194939</t>
-  </si>
-  <si>
-    <t>13862500806</t>
-  </si>
-  <si>
-    <t>13862051919</t>
-  </si>
-  <si>
-    <t>15906201883</t>
-  </si>
-  <si>
-    <t>13405287779</t>
-  </si>
-  <si>
-    <t>13701557566</t>
-  </si>
-  <si>
-    <t>13962660077</t>
-  </si>
-  <si>
-    <t>13962278018</t>
-  </si>
-  <si>
-    <t>13906251176</t>
-  </si>
-  <si>
-    <t>13913503403</t>
-  </si>
-  <si>
-    <t>13771995551</t>
-  </si>
-  <si>
-    <t>15358803420</t>
-  </si>
-  <si>
-    <t>13862541825</t>
-  </si>
-  <si>
-    <t>13706225547</t>
-  </si>
-  <si>
-    <t>13962109126</t>
-  </si>
-  <si>
-    <t>13906256908</t>
-  </si>
-  <si>
-    <t>13814559501</t>
-  </si>
-  <si>
-    <t>13915758338</t>
-  </si>
-  <si>
-    <t>13771998177</t>
-  </si>
-  <si>
-    <t>15995777757</t>
-  </si>
-  <si>
-    <t>13914919740</t>
-  </si>
-  <si>
-    <t>13913100195</t>
-  </si>
-  <si>
-    <t>18913608996</t>
-  </si>
-  <si>
-    <t>15106203538</t>
-  </si>
-  <si>
-    <t>13506259231</t>
-  </si>
-  <si>
-    <t>18912713005</t>
-  </si>
-  <si>
-    <t>13962152284</t>
-  </si>
-  <si>
-    <t>13295166897</t>
-  </si>
-  <si>
-    <t>13861333966</t>
-  </si>
-  <si>
-    <t>13812750092</t>
-  </si>
-  <si>
-    <t>13776276456</t>
-  </si>
-  <si>
-    <t>13862550271</t>
-  </si>
-  <si>
-    <t>13776085600</t>
-  </si>
-  <si>
-    <t>13914030759</t>
-  </si>
-  <si>
-    <t>13921968098</t>
-  </si>
-  <si>
-    <t>18662633833</t>
-  </si>
-  <si>
-    <t>13862200033</t>
-  </si>
-  <si>
-    <t>15862490037</t>
-  </si>
-  <si>
-    <t>15370050915</t>
-  </si>
-  <si>
-    <t>13913704832</t>
-  </si>
-  <si>
-    <t>13862509803</t>
-  </si>
-  <si>
-    <t>13511605861</t>
-  </si>
-  <si>
-    <t>18913097891</t>
-  </si>
-  <si>
-    <t>18912719720</t>
-  </si>
-  <si>
-    <t>18915515579</t>
-  </si>
-  <si>
-    <t>13862118072</t>
-  </si>
-  <si>
-    <t>13771904739</t>
-  </si>
-  <si>
-    <t>13405248096</t>
-  </si>
-  <si>
-    <t>15995725945</t>
-  </si>
-  <si>
-    <t>13063863020</t>
-  </si>
-  <si>
-    <t>13906261724</t>
-  </si>
-  <si>
-    <t>13962192990</t>
-  </si>
-  <si>
-    <t>13862331764</t>
-  </si>
-  <si>
-    <t>18626186299</t>
-  </si>
-  <si>
-    <t>13806249326</t>
-  </si>
-  <si>
-    <t>13914087519</t>
-  </si>
-  <si>
-    <t>13382169216</t>
-  </si>
-  <si>
-    <t>13862500329</t>
-  </si>
-  <si>
-    <t>13073361808</t>
-  </si>
-  <si>
-    <t>13913142427</t>
-  </si>
-  <si>
-    <t>13962573630</t>
-  </si>
-  <si>
-    <t>13862557893</t>
-  </si>
-  <si>
-    <t>13862160435</t>
-  </si>
-  <si>
-    <t>13771673253</t>
-  </si>
-  <si>
-    <t>15951185835</t>
-  </si>
-  <si>
-    <t>13041879995</t>
-  </si>
-  <si>
-    <t>13776137360</t>
-  </si>
-  <si>
-    <t>13806251577</t>
-  </si>
-  <si>
-    <t>13861337864</t>
-  </si>
-  <si>
-    <t>18914982241</t>
-  </si>
-  <si>
-    <t>13812700660</t>
-  </si>
-  <si>
-    <t>13906247806</t>
-  </si>
-  <si>
-    <t>13092612393</t>
-  </si>
-  <si>
-    <t>13584886903</t>
-  </si>
-  <si>
-    <t>15850180580</t>
-  </si>
-  <si>
-    <t>18962572955</t>
-  </si>
-  <si>
-    <t>15106265562</t>
-  </si>
-  <si>
-    <t>13952412716</t>
-  </si>
-  <si>
-    <t>13962133811</t>
-  </si>
-  <si>
-    <t>18015506080</t>
-  </si>
-  <si>
-    <t>13906246669</t>
-  </si>
-  <si>
-    <t>13906219263</t>
-  </si>
-  <si>
-    <t>13913082555</t>
-  </si>
-  <si>
-    <t>18626106599</t>
-  </si>
-  <si>
-    <t>13771675858</t>
-  </si>
-  <si>
-    <t>13812944998</t>
-  </si>
-  <si>
-    <t>18915635552</t>
-  </si>
-  <si>
-    <t>13962507838</t>
-  </si>
-  <si>
-    <t>15151491812</t>
-  </si>
-  <si>
-    <t>13584286617</t>
-  </si>
-  <si>
-    <t>13506226851</t>
-  </si>
-  <si>
-    <t>13862522071</t>
-  </si>
-  <si>
-    <t>13812688001</t>
-  </si>
-  <si>
-    <t>13771916837</t>
-  </si>
-  <si>
-    <t>15850064118</t>
-  </si>
-  <si>
-    <t>13962624786</t>
-  </si>
-  <si>
-    <t>13771685696</t>
-  </si>
-  <si>
-    <t>13771758910</t>
-  </si>
-  <si>
-    <t>13812961881</t>
-  </si>
-  <si>
-    <t>13814807650</t>
-  </si>
-  <si>
-    <t>13405159439</t>
-  </si>
-  <si>
-    <t>13862501778</t>
-  </si>
-  <si>
-    <t>13205166051</t>
-  </si>
-  <si>
-    <t>13052829200</t>
-  </si>
-  <si>
-    <t>13013774918</t>
-  </si>
-  <si>
-    <t>13701552825</t>
-  </si>
-  <si>
-    <t>18051098078</t>
-  </si>
-  <si>
-    <t>13806223722</t>
-  </si>
-  <si>
-    <t>13862075268</t>
-  </si>
-  <si>
-    <t>13913121168</t>
-  </si>
-  <si>
-    <t>13701556315</t>
-  </si>
-  <si>
-    <t>15306251298</t>
-  </si>
-  <si>
-    <t>18651129601</t>
-  </si>
-  <si>
-    <t>13701556001</t>
-  </si>
-  <si>
-    <t>13915721285</t>
-  </si>
-  <si>
-    <t>13812983766</t>
-  </si>
-  <si>
-    <t>13914079660</t>
-  </si>
-  <si>
-    <t>13962585283</t>
-  </si>
-  <si>
-    <t>13962273883</t>
-  </si>
-  <si>
-    <t>18806212787</t>
-  </si>
-  <si>
-    <t>15190003952</t>
-  </si>
-  <si>
-    <t>13584499963</t>
-  </si>
-  <si>
-    <t>13862218857</t>
-  </si>
-  <si>
-    <t>13295166771</t>
-  </si>
-  <si>
-    <t>13915567790</t>
-  </si>
-  <si>
-    <t>13901561076</t>
-  </si>
-  <si>
-    <t>13901553585</t>
-  </si>
-  <si>
-    <t>13584827808</t>
-  </si>
-  <si>
-    <t>13962110058</t>
-  </si>
-  <si>
-    <t>15862576749</t>
-  </si>
-  <si>
-    <t>13701560258</t>
-  </si>
-  <si>
-    <t>13862008403</t>
-  </si>
-  <si>
-    <t>13358019188</t>
-  </si>
-  <si>
-    <t>13962406109</t>
-  </si>
-  <si>
-    <t>13906256876</t>
-  </si>
-  <si>
-    <t>15151482923</t>
-  </si>
-  <si>
-    <t>13222266676</t>
-  </si>
-  <si>
-    <t>18912719918</t>
-  </si>
-  <si>
-    <t>13913099268</t>
-  </si>
-  <si>
-    <t>13913777577</t>
-  </si>
-  <si>
-    <t>13338709113</t>
-  </si>
-  <si>
-    <t>13952410730</t>
-  </si>
-  <si>
-    <t>13912605807</t>
-  </si>
-  <si>
-    <t>13606241683</t>
-  </si>
-  <si>
-    <t>13584856626</t>
-  </si>
-  <si>
-    <t>15151758875</t>
-  </si>
-  <si>
-    <t>13771833661</t>
-  </si>
-  <si>
-    <t>13913708310</t>
-  </si>
-  <si>
-    <t>13771835001</t>
-  </si>
-  <si>
-    <t>15995701790</t>
-  </si>
-  <si>
-    <t>13962105080</t>
-  </si>
-  <si>
-    <t>13584810814</t>
-  </si>
-  <si>
-    <t>18752989018</t>
-  </si>
-  <si>
-    <t>13706212261</t>
-  </si>
-  <si>
-    <t>13962282250</t>
-  </si>
-  <si>
-    <t>13656221299</t>
-  </si>
-  <si>
-    <t>15950932511</t>
-  </si>
-  <si>
-    <t>13584968879</t>
-  </si>
-  <si>
-    <t>18912706660</t>
-  </si>
-  <si>
-    <t>15050187085</t>
-  </si>
-  <si>
-    <t>13915530901</t>
-  </si>
-  <si>
-    <t>13962163556</t>
-  </si>
-  <si>
-    <t>13915457622</t>
-  </si>
-  <si>
-    <t>13806227053</t>
-  </si>
-  <si>
-    <t>13511629910</t>
-  </si>
-  <si>
-    <t>13295162027</t>
-  </si>
-  <si>
-    <t>13913512985</t>
-  </si>
-  <si>
-    <t>13013888303</t>
-  </si>
-  <si>
-    <t>13771665822</t>
-  </si>
-  <si>
-    <t>13812615286</t>
-  </si>
-  <si>
-    <t>15906201321</t>
-  </si>
-  <si>
-    <t>15906137746</t>
-  </si>
-  <si>
-    <t>18606215551</t>
-  </si>
-  <si>
-    <t>13451595807</t>
-  </si>
-  <si>
-    <t>13013830973</t>
-  </si>
-  <si>
-    <t>13915758700</t>
-  </si>
-  <si>
-    <t>13405240713</t>
-  </si>
-  <si>
-    <t>13921992879</t>
-  </si>
-  <si>
-    <t>13962550032</t>
-  </si>
-  <si>
-    <t>13951128728</t>
-  </si>
-  <si>
-    <t>13962451338</t>
-  </si>
-  <si>
-    <t>13862571505</t>
-  </si>
-  <si>
-    <t>13584256358</t>
-  </si>
-  <si>
-    <t>15962579578</t>
-  </si>
-  <si>
-    <t>13511600400</t>
-  </si>
-  <si>
-    <t>13951123588</t>
-  </si>
-  <si>
-    <t>13906253369</t>
-  </si>
-  <si>
-    <t>13921982932</t>
-  </si>
-  <si>
-    <t>18915645372</t>
-  </si>
-  <si>
-    <t>13913071003</t>
-  </si>
-  <si>
-    <t>13814856693</t>
-  </si>
-  <si>
-    <t>13812717112</t>
-  </si>
-  <si>
-    <t>13405168210</t>
-  </si>
-  <si>
-    <t>13801550107</t>
-  </si>
-  <si>
-    <t>13041801118</t>
-  </si>
-  <si>
-    <t>13771625353</t>
-  </si>
-  <si>
-    <t>13706250583</t>
-  </si>
-  <si>
-    <t>13773058889</t>
-  </si>
-  <si>
-    <t>13801557570</t>
-  </si>
-  <si>
-    <t>13771951558</t>
-  </si>
-  <si>
-    <t>13773290578</t>
-  </si>
-  <si>
-    <t>13912780391</t>
-  </si>
-  <si>
-    <t>13814892543</t>
-  </si>
-  <si>
-    <t>18915567898</t>
-  </si>
-  <si>
-    <t>13771782553</t>
-  </si>
-  <si>
-    <t>13004593604</t>
-  </si>
-  <si>
-    <t>13862222504</t>
-  </si>
-  <si>
-    <t>15950154665</t>
-  </si>
-  <si>
-    <t>13962557956</t>
-  </si>
-  <si>
-    <t>13776070943</t>
-  </si>
-  <si>
-    <t>13812856988</t>
-  </si>
-  <si>
-    <t>13776366984</t>
-  </si>
-  <si>
-    <t>13913099001</t>
-  </si>
-  <si>
-    <t>13806266684</t>
-  </si>
-  <si>
-    <t>13063801858</t>
-  </si>
-  <si>
-    <t>15862331807</t>
-  </si>
-  <si>
-    <t>13801563056</t>
-  </si>
-  <si>
-    <t>13915526698</t>
-  </si>
-  <si>
-    <t>13951135722</t>
-  </si>
-  <si>
-    <t>13606203183</t>
-  </si>
-  <si>
-    <t>13801567868</t>
-  </si>
-  <si>
-    <t>13906243360</t>
-  </si>
-  <si>
-    <t>15962571773</t>
-  </si>
-  <si>
-    <t>13913151250</t>
-  </si>
-  <si>
-    <t>13814812616</t>
-  </si>
-  <si>
-    <t>13771976377</t>
-  </si>
-  <si>
-    <t>18606211612</t>
-  </si>
-  <si>
-    <t>18862184162</t>
-  </si>
-  <si>
-    <t>13506131888</t>
-  </si>
-  <si>
-    <t>13073371540</t>
-  </si>
-  <si>
-    <t>13812702259</t>
-  </si>
-  <si>
-    <t>13915599182</t>
-  </si>
-  <si>
-    <t>13951119193</t>
-  </si>
-  <si>
-    <t>15150134912</t>
-  </si>
-  <si>
-    <t>13706237448</t>
-  </si>
-  <si>
-    <t>13706221178</t>
-  </si>
-  <si>
-    <t>18662322068</t>
-  </si>
-  <si>
-    <t>13773188387</t>
-  </si>
-  <si>
-    <t>15995483745</t>
-  </si>
-  <si>
-    <t>13952426500</t>
-  </si>
-  <si>
-    <t>13862082565</t>
-  </si>
-  <si>
-    <t>15262330699</t>
-  </si>
-  <si>
-    <t>13912752051</t>
-  </si>
-  <si>
-    <t>13511617165</t>
-  </si>
-  <si>
-    <t>13771813680</t>
-  </si>
-  <si>
-    <t>13901548792</t>
-  </si>
-  <si>
-    <t>13812686405</t>
-  </si>
-  <si>
-    <t>18652433180</t>
-  </si>
-  <si>
-    <t>18012659960</t>
-  </si>
-  <si>
-    <t>13701553818</t>
-  </si>
-  <si>
-    <t>13913570558</t>
-  </si>
-  <si>
-    <t>13906240789</t>
-  </si>
-  <si>
-    <t>13601565805</t>
-  </si>
-  <si>
-    <t>13771623830</t>
-  </si>
-  <si>
-    <t>13773228427</t>
-  </si>
-  <si>
-    <t>13812677777</t>
-  </si>
-  <si>
-    <t>13584446997</t>
-  </si>
-  <si>
-    <t>15995578878</t>
-  </si>
-  <si>
-    <t>15195632768</t>
-  </si>
-  <si>
-    <t>15995555230</t>
-  </si>
-  <si>
-    <t>15995738889</t>
-  </si>
-  <si>
-    <t>13706255386</t>
-  </si>
-  <si>
-    <t>13584921572</t>
-  </si>
-  <si>
-    <t>13962213278</t>
-  </si>
-  <si>
-    <t>13776090927</t>
-  </si>
-  <si>
-    <t>13057462177</t>
-  </si>
-  <si>
-    <t>13952433894</t>
-  </si>
-  <si>
-    <t>13338002158</t>
-  </si>
-  <si>
-    <t>13656228894</t>
-  </si>
-  <si>
-    <t>13771739964</t>
-  </si>
-  <si>
-    <t>13801566073</t>
-  </si>
-  <si>
-    <t>13073366828</t>
-  </si>
-  <si>
-    <t>13511610839</t>
-  </si>
-  <si>
-    <t>13776265188</t>
-  </si>
-  <si>
-    <t>18626241855</t>
-  </si>
-  <si>
-    <t>18915558055</t>
-  </si>
-  <si>
-    <t>13913798675</t>
-  </si>
-  <si>
-    <t>13921975224</t>
-  </si>
-  <si>
-    <t>13962106689</t>
-  </si>
-  <si>
-    <t>13814872040</t>
-  </si>
-  <si>
-    <t>13812659503</t>
-  </si>
-  <si>
-    <t>13962510115</t>
-  </si>
-  <si>
-    <t>13862132333</t>
-  </si>
-  <si>
-    <t>15250098352</t>
-  </si>
-  <si>
-    <t>15162364165</t>
-  </si>
-  <si>
-    <t>13913791866</t>
-  </si>
-  <si>
-    <t>13451535901</t>
-  </si>
-  <si>
-    <t>13584499997</t>
-  </si>
-  <si>
-    <t>15162511600</t>
-  </si>
-  <si>
-    <t>13913536673</t>
-  </si>
-  <si>
-    <t>13701559172</t>
-  </si>
-  <si>
-    <t>13584860832</t>
-  </si>
-  <si>
-    <t>13906255781</t>
-  </si>
-  <si>
-    <t>13606214141</t>
-  </si>
-  <si>
-    <t>13451552446</t>
-  </si>
-  <si>
-    <t>18662160049</t>
-  </si>
-  <si>
-    <t>13913107521</t>
-  </si>
-  <si>
-    <t>13511620777</t>
-  </si>
-  <si>
-    <t>13776100133</t>
-  </si>
-  <si>
-    <t>13771808966</t>
-  </si>
-  <si>
-    <t>13862404596</t>
-  </si>
-  <si>
-    <t>13606223629</t>
-  </si>
-  <si>
-    <t>13013775947</t>
-  </si>
-  <si>
-    <t>15851590777</t>
-  </si>
-  <si>
-    <t>13913133235</t>
-  </si>
-  <si>
-    <t>13901551912</t>
-  </si>
-  <si>
-    <t>15962388657</t>
-  </si>
-  <si>
-    <t>18912747677</t>
-  </si>
-  <si>
-    <t>13913716838</t>
-  </si>
-  <si>
-    <t>15371830323</t>
-  </si>
-  <si>
-    <t>13915599303</t>
-  </si>
-  <si>
-    <t>13913572614</t>
-  </si>
-  <si>
-    <t>13906242676</t>
-  </si>
-  <si>
-    <t>15962571177</t>
-  </si>
-  <si>
-    <t>13951112487</t>
-  </si>
-  <si>
-    <t>13901570339</t>
-  </si>
-  <si>
-    <t>13912608060</t>
-  </si>
-  <si>
-    <t>13906254862</t>
-  </si>
-  <si>
-    <t>13913177360</t>
-  </si>
-  <si>
-    <t>13901561901</t>
-  </si>
-  <si>
-    <t>13962149869</t>
-  </si>
-  <si>
-    <t>13812782401</t>
-  </si>
-  <si>
-    <t>13801562777</t>
-  </si>
-  <si>
-    <t>13913076371</t>
-  </si>
-  <si>
-    <t>13912797121</t>
-  </si>
-  <si>
-    <t>13771939684</t>
-  </si>
-  <si>
-    <t>13921991773</t>
-  </si>
-  <si>
-    <t>13601561833</t>
-  </si>
-  <si>
-    <t>13646229519</t>
-  </si>
-  <si>
-    <t>15962118757</t>
-  </si>
-  <si>
-    <t>18913052248</t>
-  </si>
-  <si>
-    <t>13815265248</t>
-  </si>
-  <si>
-    <t>13962574000</t>
-  </si>
-  <si>
-    <t>13862051258</t>
-  </si>
-  <si>
-    <t>13906254220</t>
-  </si>
-  <si>
-    <t>13606215160</t>
-  </si>
-  <si>
-    <t>13962501628</t>
-  </si>
-  <si>
-    <t>13626196643</t>
-  </si>
-  <si>
-    <t>13913528510</t>
-  </si>
-  <si>
-    <t>13912739662</t>
-  </si>
-  <si>
-    <t>13862554830</t>
-  </si>
-  <si>
-    <t>13218166813</t>
-  </si>
-  <si>
-    <t>15151571187</t>
-  </si>
-  <si>
-    <t>13862089081</t>
-  </si>
-  <si>
-    <t>13372179888</t>
-  </si>
-  <si>
-    <t>13962268548</t>
-  </si>
-  <si>
-    <t>18915505663</t>
-  </si>
-  <si>
-    <t>13912775253</t>
-  </si>
-  <si>
-    <t>13606211091</t>
-  </si>
-  <si>
-    <t>15962551882</t>
-  </si>
-  <si>
-    <t>13913210400</t>
-  </si>
-  <si>
-    <t>13812923662</t>
-  </si>
-  <si>
-    <t>13913540927</t>
-  </si>
-  <si>
-    <t>13052800800</t>
-  </si>
-  <si>
-    <t>13913060696</t>
-  </si>
-  <si>
-    <t>13862003721</t>
-  </si>
-  <si>
-    <t>13801558820</t>
-  </si>
-  <si>
-    <t>13773176794</t>
-  </si>
-  <si>
-    <t>13328016758</t>
-  </si>
-  <si>
-    <t>13812993363</t>
-  </si>
-  <si>
-    <t>13328005460</t>
-  </si>
-  <si>
-    <t>13812671555</t>
-  </si>
-  <si>
-    <t>13092662908</t>
-  </si>
-  <si>
-    <t>13962536656</t>
-  </si>
-  <si>
-    <t>13951125327</t>
-  </si>
-  <si>
-    <t>13913706999</t>
-  </si>
-  <si>
-    <t>18862545426</t>
-  </si>
-  <si>
-    <t>13656215721</t>
-  </si>
-  <si>
-    <t>13915520956</t>
-  </si>
-  <si>
-    <t>13584900861</t>
-  </si>
-  <si>
-    <t>13812727639</t>
-  </si>
-  <si>
-    <t>18151782224</t>
-  </si>
-  <si>
-    <t>15906215753</t>
-  </si>
-  <si>
-    <t>13915689999</t>
-  </si>
-  <si>
-    <t>13962113923</t>
-  </si>
-  <si>
-    <t>13862506196</t>
-  </si>
-  <si>
-    <t>13584283852</t>
-  </si>
-  <si>
-    <t>13806262364</t>
-  </si>
-  <si>
-    <t>13706253635</t>
-  </si>
-  <si>
-    <t>13862541160</t>
-  </si>
-  <si>
-    <t>18913191773</t>
-  </si>
-  <si>
-    <t>13812779665</t>
-  </si>
-  <si>
-    <t>13218110298</t>
-  </si>
-  <si>
-    <t>13962167516</t>
-  </si>
-  <si>
-    <t>15306255229</t>
-  </si>
-  <si>
-    <t>15995926224</t>
-  </si>
-  <si>
-    <t>15150252403</t>
-  </si>
-  <si>
-    <t>18915599757</t>
-  </si>
-  <si>
-    <t>13776080296</t>
-  </si>
-  <si>
-    <t>13901562821</t>
-  </si>
-  <si>
-    <t>15950172031</t>
-  </si>
-  <si>
-    <t>13913118620</t>
-  </si>
-  <si>
-    <t>13656219111</t>
-  </si>
-  <si>
-    <t>15306251398</t>
-  </si>
-  <si>
-    <t>15306257120</t>
-  </si>
-  <si>
-    <t>13814932616</t>
-  </si>
-  <si>
-    <t>13814568219</t>
-  </si>
-  <si>
-    <t>13776272788</t>
-  </si>
-  <si>
-    <t>13776062380</t>
-  </si>
-  <si>
-    <t>13806223059</t>
-  </si>
-  <si>
-    <t>13584486856</t>
-  </si>
-  <si>
-    <t>13806227798</t>
-  </si>
-  <si>
-    <t>13771880761</t>
-  </si>
-  <si>
-    <t>13706134280</t>
-  </si>
-  <si>
-    <t>18015598596</t>
-  </si>
-  <si>
-    <t>18913572759</t>
-  </si>
-  <si>
-    <t>13812702220</t>
-  </si>
-  <si>
-    <t>13906203191</t>
-  </si>
-  <si>
-    <t>15306255586</t>
-  </si>
-  <si>
-    <t>13776150398</t>
-  </si>
-  <si>
-    <t>13862541757</t>
-  </si>
-  <si>
-    <t>13862427780</t>
-  </si>
-  <si>
-    <t>13115111999</t>
-  </si>
-  <si>
-    <t>13912722867</t>
-  </si>
-  <si>
-    <t>13771976446</t>
-  </si>
-  <si>
-    <t>18012611488</t>
-  </si>
-  <si>
-    <t>13962532230</t>
-  </si>
-  <si>
-    <t>13390897172</t>
-  </si>
-  <si>
-    <t>13962109881</t>
-  </si>
-  <si>
-    <t>15895563124</t>
-  </si>
-  <si>
-    <t>13812877070</t>
-  </si>
-  <si>
-    <t>13646227611</t>
-  </si>
-  <si>
-    <t>13962540519</t>
-  </si>
-  <si>
-    <t>13511627141</t>
-  </si>
-  <si>
-    <t>18994435815</t>
-  </si>
-  <si>
-    <t>13952449533</t>
-  </si>
-  <si>
-    <t>18913591006</t>
-  </si>
-  <si>
-    <t>13912740250</t>
-  </si>
-  <si>
-    <t>13814894754</t>
-  </si>
-  <si>
-    <t>13616251888</t>
-  </si>
-  <si>
-    <t>18662493287</t>
-  </si>
-  <si>
-    <t>13771621898</t>
-  </si>
-  <si>
-    <t>13962631888</t>
-  </si>
-  <si>
-    <t>13915678581</t>
-  </si>
-  <si>
-    <t>15150144009</t>
-  </si>
-  <si>
-    <t>13771766652</t>
-  </si>
-  <si>
-    <t>15151568403</t>
-  </si>
-  <si>
-    <t>15851596373</t>
-  </si>
-  <si>
-    <t>13912709988</t>
-  </si>
-  <si>
-    <t>13912733396</t>
-  </si>
-  <si>
-    <t>13962572882</t>
-  </si>
-  <si>
-    <t>18915513622</t>
-  </si>
-  <si>
-    <t>13771753415</t>
-  </si>
-  <si>
-    <t>13776228127</t>
-  </si>
-  <si>
-    <t>15962623545</t>
-  </si>
-  <si>
-    <t>15862612570</t>
-  </si>
-  <si>
-    <t>13701578683</t>
-  </si>
-  <si>
-    <t>13862266310</t>
-  </si>
-  <si>
-    <t>18913596165</t>
-  </si>
-  <si>
-    <t>13814822938</t>
-  </si>
-  <si>
-    <t>18606218098</t>
-  </si>
-  <si>
-    <t>15962144999</t>
-  </si>
-  <si>
-    <t>13862508811</t>
-  </si>
-  <si>
-    <t>15062529039</t>
-  </si>
-  <si>
-    <t>13405232328</t>
-  </si>
-  <si>
-    <t>13801561997</t>
-  </si>
-  <si>
-    <t>13915440188</t>
-  </si>
-  <si>
-    <t>13328012787</t>
-  </si>
-  <si>
-    <t>15962686774</t>
-  </si>
-  <si>
-    <t>13912728912</t>
-  </si>
-  <si>
-    <t>13606216539</t>
-  </si>
-  <si>
-    <t>15651100015</t>
-  </si>
-  <si>
-    <t>15190088856</t>
-  </si>
-  <si>
-    <t>13962601240</t>
-  </si>
-  <si>
-    <t>13405046964</t>
-  </si>
-  <si>
-    <t>13862008286</t>
-  </si>
-  <si>
-    <t>13962131774</t>
-  </si>
-  <si>
-    <t>13063869796</t>
-  </si>
-  <si>
-    <t>13301559587</t>
-  </si>
-  <si>
-    <t>18962688288</t>
-  </si>
-  <si>
-    <t>15950929752</t>
-  </si>
-  <si>
-    <t>13862596220</t>
-  </si>
-  <si>
-    <t>13402561177</t>
-  </si>
-  <si>
-    <t>13306252233</t>
-  </si>
-  <si>
-    <t>15190590448</t>
-  </si>
-  <si>
-    <t>13771699587</t>
-  </si>
-  <si>
-    <t>13962154117</t>
-  </si>
-  <si>
-    <t>13701558521</t>
-  </si>
-  <si>
-    <t>13901555850</t>
-  </si>
-  <si>
-    <t>13806259738</t>
-  </si>
-  <si>
-    <t>13222292999</t>
-  </si>
-  <si>
-    <t>13862181370</t>
-  </si>
-  <si>
-    <t>13913576447</t>
-  </si>
-  <si>
-    <t>13861320373</t>
-  </si>
-  <si>
-    <t>13921982928</t>
-  </si>
-  <si>
-    <t>13584493350</t>
-  </si>
-  <si>
-    <t>13601560101</t>
-  </si>
-  <si>
-    <t>15162352181</t>
-  </si>
-  <si>
-    <t>18625229979</t>
-  </si>
-  <si>
-    <t>18913214422</t>
-  </si>
-  <si>
-    <t>13906241516</t>
-  </si>
-  <si>
-    <t>13812647675</t>
-  </si>
-  <si>
-    <t>18662542758</t>
-  </si>
-  <si>
-    <t>13390869688</t>
-  </si>
-  <si>
-    <t>15050166759</t>
-  </si>
-  <si>
-    <t>15862510241</t>
-  </si>
-  <si>
-    <t>13862574985</t>
-  </si>
-  <si>
-    <t>13306240731</t>
-  </si>
-  <si>
-    <t>13706223219</t>
-  </si>
-  <si>
-    <t>13584868107</t>
-  </si>
-  <si>
-    <t>13812628972</t>
-  </si>
-  <si>
-    <t>13862272151</t>
-  </si>
-  <si>
-    <t>13301560333</t>
-  </si>
-  <si>
-    <t>13962292365</t>
-  </si>
-  <si>
-    <t>13706229758</t>
-  </si>
-  <si>
-    <t>13584874653</t>
-  </si>
-  <si>
-    <t>13306136320</t>
-  </si>
-  <si>
-    <t>13901566751</t>
-  </si>
-  <si>
-    <t>15150360790</t>
-  </si>
-  <si>
-    <t>13906253112</t>
-  </si>
-  <si>
-    <t>15962660023</t>
-  </si>
-  <si>
-    <t>15050216769</t>
-  </si>
-  <si>
-    <t>13616259053</t>
-  </si>
-  <si>
-    <t>15862582093</t>
-  </si>
-  <si>
-    <t>13776116319</t>
-  </si>
-  <si>
-    <t>13962230811</t>
-  </si>
-  <si>
-    <t>13701555732</t>
-  </si>
-  <si>
-    <t>13951126796</t>
-  </si>
-  <si>
-    <t>13906131188</t>
-  </si>
-  <si>
-    <t>13701550318</t>
-  </si>
-  <si>
-    <t>18306131116</t>
-  </si>
-  <si>
-    <t>13861337182</t>
-  </si>
-  <si>
-    <t>13913531415</t>
-  </si>
-  <si>
-    <t>15250411577</t>
-  </si>
-  <si>
-    <t>13906251600</t>
-  </si>
-  <si>
-    <t>13771688750</t>
-  </si>
-  <si>
-    <t>13382167227</t>
-  </si>
-  <si>
-    <t>13301567378</t>
-  </si>
-  <si>
-    <t>13806251811</t>
-  </si>
-  <si>
-    <t>13952408626</t>
-  </si>
-  <si>
-    <t>13912735366</t>
-  </si>
-  <si>
-    <t>15950033768</t>
-  </si>
-  <si>
-    <t>13584281698</t>
-  </si>
-  <si>
-    <t>18662262727</t>
-  </si>
-  <si>
-    <t>13962108358</t>
-  </si>
-  <si>
-    <t>13912767157</t>
-  </si>
-  <si>
-    <t>13812842118</t>
-  </si>
-  <si>
-    <t>13776296089</t>
-  </si>
-  <si>
-    <t>13771643252</t>
-  </si>
-  <si>
-    <t>13906215220</t>
-  </si>
-  <si>
-    <t>13776050610</t>
-  </si>
-  <si>
-    <t>13301550787</t>
-  </si>
-  <si>
-    <t>13732639300</t>
-  </si>
-  <si>
-    <t>13951132352</t>
-  </si>
-  <si>
-    <t>13913558916</t>
-  </si>
-  <si>
-    <t>13771784303</t>
-  </si>
-  <si>
-    <t>13952407342</t>
-  </si>
-  <si>
-    <t>13913075066</t>
-  </si>
-  <si>
-    <t>13606200303</t>
-  </si>
-  <si>
-    <t>15962356192</t>
-  </si>
-  <si>
-    <t>13862536974</t>
-  </si>
-  <si>
-    <t>13606223458</t>
-  </si>
-  <si>
-    <t>13913729300</t>
-  </si>
-  <si>
-    <t>13862508132</t>
-  </si>
-  <si>
-    <t>13951106807</t>
-  </si>
-  <si>
-    <t>13205169656</t>
-  </si>
-  <si>
-    <t>13584284675</t>
-  </si>
-  <si>
-    <t>13912712921</t>
-  </si>
-  <si>
-    <t>13915704038</t>
-  </si>
-  <si>
-    <t>13771661008</t>
-  </si>
-  <si>
-    <t>13182602853</t>
-  </si>
-  <si>
-    <t>18962311888</t>
-  </si>
-  <si>
-    <t>13771697777</t>
-  </si>
-  <si>
-    <t>15106138864</t>
-  </si>
-  <si>
-    <t>13375186058</t>
-  </si>
-  <si>
-    <t>13812872008</t>
-  </si>
-  <si>
-    <t>13616256608</t>
-  </si>
-  <si>
-    <t>13912612654</t>
-  </si>
-  <si>
-    <t>15950094562</t>
-  </si>
-  <si>
-    <t>13913717128</t>
-  </si>
-  <si>
-    <t>13205137222</t>
-  </si>
-  <si>
-    <t>13913100996</t>
-  </si>
-  <si>
-    <t>13901550085</t>
-  </si>
-  <si>
-    <t>13701563980</t>
-  </si>
-  <si>
-    <t>13915554234</t>
-  </si>
-  <si>
-    <t>13402506227</t>
-  </si>
-  <si>
-    <t>18651127100</t>
-  </si>
-  <si>
-    <t>13706258207</t>
-  </si>
-  <si>
-    <t>15906211836</t>
-  </si>
-  <si>
-    <t>13915680662</t>
-  </si>
-  <si>
-    <t>13913118634</t>
-  </si>
-  <si>
-    <t>13073365377</t>
-  </si>
-  <si>
-    <t>15851651983</t>
-  </si>
-  <si>
-    <t>13962575347</t>
-  </si>
-  <si>
-    <t>13901556675</t>
-  </si>
-  <si>
-    <t>18012612898</t>
-  </si>
-  <si>
-    <t>15962576102</t>
-  </si>
-  <si>
-    <t>13771719273</t>
+    <t>13706131096</t>
+  </si>
+  <si>
+    <t>13706131230</t>
+  </si>
+  <si>
+    <t>13706131395</t>
+  </si>
+  <si>
+    <t>13706131429</t>
+  </si>
+  <si>
+    <t>13706131591</t>
+  </si>
+  <si>
+    <t>13706131675</t>
+  </si>
+  <si>
+    <t>13706131696</t>
+  </si>
+  <si>
+    <t>13706131808</t>
+  </si>
+  <si>
+    <t>13706131978</t>
+  </si>
+  <si>
+    <t>13706131979</t>
+  </si>
+  <si>
+    <t>13706132038</t>
+  </si>
+  <si>
+    <t>13706132706</t>
+  </si>
+  <si>
+    <t>13706132813</t>
+  </si>
+  <si>
+    <t>13706132873</t>
+  </si>
+  <si>
+    <t>13706133261</t>
+  </si>
+  <si>
+    <t>13706133365</t>
+  </si>
+  <si>
+    <t>13706133388</t>
+  </si>
+  <si>
+    <t>13706133390</t>
+  </si>
+  <si>
+    <t>13706133622</t>
+  </si>
+  <si>
+    <t>13706133792</t>
+  </si>
+  <si>
+    <t>13706133795</t>
+  </si>
+  <si>
+    <t>13706133803</t>
+  </si>
+  <si>
+    <t>13706134028</t>
+  </si>
+  <si>
+    <t>13706134342</t>
+  </si>
+  <si>
+    <t>13706134384</t>
+  </si>
+  <si>
+    <t>13706134728</t>
+  </si>
+  <si>
+    <t>13706134764</t>
+  </si>
+  <si>
+    <t>13706134822</t>
+  </si>
+  <si>
+    <t>13706134857</t>
+  </si>
+  <si>
+    <t>13706134930</t>
+  </si>
+  <si>
+    <t>13706134986</t>
+  </si>
+  <si>
+    <t>13706135279</t>
+  </si>
+  <si>
+    <t>13706135358</t>
+  </si>
+  <si>
+    <t>13706135370</t>
+  </si>
+  <si>
+    <t>13706135459</t>
+  </si>
+  <si>
+    <t>13706135499</t>
+  </si>
+  <si>
+    <t>13706135631</t>
+  </si>
+  <si>
+    <t>13706135702</t>
+  </si>
+  <si>
+    <t>13706135717</t>
+  </si>
+  <si>
+    <t>13706135780</t>
+  </si>
+  <si>
+    <t>13706135886</t>
+  </si>
+  <si>
+    <t>13706136010</t>
+  </si>
+  <si>
+    <t>13706136022</t>
+  </si>
+  <si>
+    <t>13706136217</t>
+  </si>
+  <si>
+    <t>13706136241</t>
+  </si>
+  <si>
+    <t>13706136635</t>
+  </si>
+  <si>
+    <t>13706136717</t>
+  </si>
+  <si>
+    <t>13706136966</t>
+  </si>
+  <si>
+    <t>13706136975</t>
+  </si>
+  <si>
+    <t>13706137046</t>
+  </si>
+  <si>
+    <t>13706137275</t>
+  </si>
+  <si>
+    <t>13706137405</t>
+  </si>
+  <si>
+    <t>13706137520</t>
+  </si>
+  <si>
+    <t>13706137538</t>
+  </si>
+  <si>
+    <t>13706137672</t>
+  </si>
+  <si>
+    <t>13706137693</t>
+  </si>
+  <si>
+    <t>13706137766</t>
+  </si>
+  <si>
+    <t>13706137788</t>
+  </si>
+  <si>
+    <t>13706137875</t>
+  </si>
+  <si>
+    <t>13706138035</t>
+  </si>
+  <si>
+    <t>13706138040</t>
+  </si>
+  <si>
+    <t>13706138490</t>
+  </si>
+  <si>
+    <t>13706138738</t>
+  </si>
+  <si>
+    <t>13706138776</t>
+  </si>
+  <si>
+    <t>13706138804</t>
+  </si>
+  <si>
+    <t>13706138975</t>
+  </si>
+  <si>
+    <t>13706139320</t>
+  </si>
+  <si>
+    <t>13706139408</t>
+  </si>
+  <si>
+    <t>13706139424</t>
+  </si>
+  <si>
+    <t>13706139436</t>
+  </si>
+  <si>
+    <t>13706139599</t>
+  </si>
+  <si>
+    <t>13706139603</t>
+  </si>
+  <si>
+    <t>13706139619</t>
+  </si>
+  <si>
+    <t>13706139718</t>
+  </si>
+  <si>
+    <t>13706139761</t>
+  </si>
+  <si>
+    <t>13706200082</t>
+  </si>
+  <si>
+    <t>13706200131</t>
+  </si>
+  <si>
+    <t>13706200138</t>
+  </si>
+  <si>
+    <t>13706200298</t>
+  </si>
+  <si>
+    <t>13706200402</t>
+  </si>
+  <si>
+    <t>13706200470</t>
+  </si>
+  <si>
+    <t>13706200548</t>
+  </si>
+  <si>
+    <t>13706200661</t>
+  </si>
+  <si>
+    <t>13706200773</t>
+  </si>
+  <si>
+    <t>13706200833</t>
+  </si>
+  <si>
+    <t>13706200926</t>
+  </si>
+  <si>
+    <t>13706201001</t>
+  </si>
+  <si>
+    <t>13706201161</t>
+  </si>
+  <si>
+    <t>13706201231</t>
+  </si>
+  <si>
+    <t>13706201246</t>
+  </si>
+  <si>
+    <t>13706201309</t>
+  </si>
+  <si>
+    <t>13706201335</t>
+  </si>
+  <si>
+    <t>13706201414</t>
+  </si>
+  <si>
+    <t>13706201668</t>
+  </si>
+  <si>
+    <t>13706201798</t>
+  </si>
+  <si>
+    <t>13706201800</t>
+  </si>
+  <si>
+    <t>13706201882</t>
+  </si>
+  <si>
+    <t>13706202029</t>
+  </si>
+  <si>
+    <t>13706202069</t>
+  </si>
+  <si>
+    <t>13706202202</t>
+  </si>
+  <si>
+    <t>13706202709</t>
+  </si>
+  <si>
+    <t>13706202933</t>
+  </si>
+  <si>
+    <t>13706202975</t>
+  </si>
+  <si>
+    <t>13706203026</t>
+  </si>
+  <si>
+    <t>13706203039</t>
+  </si>
+  <si>
+    <t>13706203071</t>
+  </si>
+  <si>
+    <t>13706203158</t>
+  </si>
+  <si>
+    <t>13706203197</t>
+  </si>
+  <si>
+    <t>13706203229</t>
+  </si>
+  <si>
+    <t>13706203281</t>
+  </si>
+  <si>
+    <t>13706203329</t>
+  </si>
+  <si>
+    <t>13706203398</t>
+  </si>
+  <si>
+    <t>13706203432</t>
+  </si>
+  <si>
+    <t>13706203516</t>
+  </si>
+  <si>
+    <t>13706203621</t>
+  </si>
+  <si>
+    <t>13706203626</t>
+  </si>
+  <si>
+    <t>13706203637</t>
+  </si>
+  <si>
+    <t>13706203689</t>
+  </si>
+  <si>
+    <t>13706203706</t>
+  </si>
+  <si>
+    <t>13706203755</t>
+  </si>
+  <si>
+    <t>13706204580</t>
+  </si>
+  <si>
+    <t>13706204605</t>
+  </si>
+  <si>
+    <t>13706204653</t>
+  </si>
+  <si>
+    <t>13706204696</t>
+  </si>
+  <si>
+    <t>13706204815</t>
+  </si>
+  <si>
+    <t>13706204833</t>
+  </si>
+  <si>
+    <t>13706204908</t>
+  </si>
+  <si>
+    <t>13706205003</t>
+  </si>
+  <si>
+    <t>13706205246</t>
+  </si>
+  <si>
+    <t>13706205265</t>
+  </si>
+  <si>
+    <t>13706205455</t>
+  </si>
+  <si>
+    <t>13706205728</t>
+  </si>
+  <si>
+    <t>13706205747</t>
+  </si>
+  <si>
+    <t>13706205801</t>
+  </si>
+  <si>
+    <t>13706205844</t>
+  </si>
+  <si>
+    <t>13706205901</t>
+  </si>
+  <si>
+    <t>13706206012</t>
+  </si>
+  <si>
+    <t>13706206013</t>
+  </si>
+  <si>
+    <t>13706206352</t>
+  </si>
+  <si>
+    <t>13706206550</t>
+  </si>
+  <si>
+    <t>13706206572</t>
+  </si>
+  <si>
+    <t>13706206587</t>
+  </si>
+  <si>
+    <t>13706206701</t>
+  </si>
+  <si>
+    <t>13706206748</t>
+  </si>
+  <si>
+    <t>13706206901</t>
+  </si>
+  <si>
+    <t>13706206927</t>
+  </si>
+  <si>
+    <t>13706206989</t>
+  </si>
+  <si>
+    <t>13706207086</t>
+  </si>
+  <si>
+    <t>13706207161</t>
+  </si>
+  <si>
+    <t>13706207173</t>
+  </si>
+  <si>
+    <t>13706207184</t>
+  </si>
+  <si>
+    <t>13706207536</t>
+  </si>
+  <si>
+    <t>13706207538</t>
+  </si>
+  <si>
+    <t>13706207612</t>
+  </si>
+  <si>
+    <t>13706207633</t>
+  </si>
+  <si>
+    <t>13706207690</t>
+  </si>
+  <si>
+    <t>13706207703</t>
+  </si>
+  <si>
+    <t>13706208174</t>
+  </si>
+  <si>
+    <t>13706208188</t>
+  </si>
+  <si>
+    <t>13706208286</t>
+  </si>
+  <si>
+    <t>13706208819</t>
+  </si>
+  <si>
+    <t>13706208961</t>
+  </si>
+  <si>
+    <t>13706209094</t>
+  </si>
+  <si>
+    <t>13706209179</t>
+  </si>
+  <si>
+    <t>13706209212</t>
+  </si>
+  <si>
+    <t>13706209215</t>
+  </si>
+  <si>
+    <t>13706209454</t>
+  </si>
+  <si>
+    <t>13706209534</t>
+  </si>
+  <si>
+    <t>13706209617</t>
+  </si>
+  <si>
+    <t>13706210193</t>
+  </si>
+  <si>
+    <t>13706210350</t>
+  </si>
+  <si>
+    <t>13706210461</t>
+  </si>
+  <si>
+    <t>13706210508</t>
+  </si>
+  <si>
+    <t>13706210525</t>
+  </si>
+  <si>
+    <t>13706210558</t>
+  </si>
+  <si>
+    <t>13706210904</t>
+  </si>
+  <si>
+    <t>13706210934</t>
+  </si>
+  <si>
+    <t>13706210952</t>
+  </si>
+  <si>
+    <t>13706211008</t>
+  </si>
+  <si>
+    <t>13706211032</t>
+  </si>
+  <si>
+    <t>13706211226</t>
+  </si>
+  <si>
+    <t>13706211266</t>
+  </si>
+  <si>
+    <t>13706211458</t>
+  </si>
+  <si>
+    <t>13706211582</t>
+  </si>
+  <si>
+    <t>13706211651</t>
+  </si>
+  <si>
+    <t>13706211660</t>
+  </si>
+  <si>
+    <t>13706211807</t>
+  </si>
+  <si>
+    <t>13706211910</t>
+  </si>
+  <si>
+    <t>13706211990</t>
+  </si>
+  <si>
+    <t>13706212015</t>
+  </si>
+  <si>
+    <t>13706212131</t>
+  </si>
+  <si>
+    <t>13706212236</t>
+  </si>
+  <si>
+    <t>13706212406</t>
+  </si>
+  <si>
+    <t>13706212613</t>
+  </si>
+  <si>
+    <t>13706212628</t>
+  </si>
+  <si>
+    <t>13706212653</t>
+  </si>
+  <si>
+    <t>13706212665</t>
+  </si>
+  <si>
+    <t>13706212688</t>
+  </si>
+  <si>
+    <t>13706212750</t>
+  </si>
+  <si>
+    <t>13706213183</t>
+  </si>
+  <si>
+    <t>13706213333</t>
+  </si>
+  <si>
+    <t>13706213553</t>
+  </si>
+  <si>
+    <t>13706213637</t>
+  </si>
+  <si>
+    <t>13706213730</t>
+  </si>
+  <si>
+    <t>13706213734</t>
+  </si>
+  <si>
+    <t>13706213798</t>
+  </si>
+  <si>
+    <t>13706214126</t>
+  </si>
+  <si>
+    <t>13706214141</t>
+  </si>
+  <si>
+    <t>13706214144</t>
+  </si>
+  <si>
+    <t>13706214315</t>
+  </si>
+  <si>
+    <t>13706214340</t>
+  </si>
+  <si>
+    <t>13706214639</t>
+  </si>
+  <si>
+    <t>13706214653</t>
+  </si>
+  <si>
+    <t>13706214753</t>
+  </si>
+  <si>
+    <t>13706214800</t>
+  </si>
+  <si>
+    <t>13706214875</t>
+  </si>
+  <si>
+    <t>13706215635</t>
+  </si>
+  <si>
+    <t>13706215650</t>
+  </si>
+  <si>
+    <t>13706215861</t>
+  </si>
+  <si>
+    <t>13706216002</t>
+  </si>
+  <si>
+    <t>13706216080</t>
+  </si>
+  <si>
+    <t>13706216270</t>
+  </si>
+  <si>
+    <t>13706216298</t>
+  </si>
+  <si>
+    <t>13706216313</t>
+  </si>
+  <si>
+    <t>13706216399</t>
+  </si>
+  <si>
+    <t>13706216416</t>
+  </si>
+  <si>
+    <t>13706216509</t>
+  </si>
+  <si>
+    <t>13706216556</t>
+  </si>
+  <si>
+    <t>13706216608</t>
+  </si>
+  <si>
+    <t>13706216728</t>
+  </si>
+  <si>
+    <t>13706216783</t>
+  </si>
+  <si>
+    <t>13706216801</t>
+  </si>
+  <si>
+    <t>13706216927</t>
+  </si>
+  <si>
+    <t>13706216996</t>
+  </si>
+  <si>
+    <t>13706217011</t>
+  </si>
+  <si>
+    <t>13706217133</t>
+  </si>
+  <si>
+    <t>13706217226</t>
+  </si>
+  <si>
+    <t>13706217277</t>
+  </si>
+  <si>
+    <t>13706217298</t>
+  </si>
+  <si>
+    <t>13706217344</t>
+  </si>
+  <si>
+    <t>13706217699</t>
+  </si>
+  <si>
+    <t>13706217978</t>
+  </si>
+  <si>
+    <t>13706218261</t>
+  </si>
+  <si>
+    <t>13706218686</t>
+  </si>
+  <si>
+    <t>13706219039</t>
+  </si>
+  <si>
+    <t>13706219281</t>
+  </si>
+  <si>
+    <t>13706219312</t>
+  </si>
+  <si>
+    <t>13706219355</t>
+  </si>
+  <si>
+    <t>13706219387</t>
+  </si>
+  <si>
+    <t>13706219394</t>
+  </si>
+  <si>
+    <t>13706219408</t>
+  </si>
+  <si>
+    <t>13706219577</t>
+  </si>
+  <si>
+    <t>13706219585</t>
+  </si>
+  <si>
+    <t>13706219601</t>
+  </si>
+  <si>
+    <t>13706219727</t>
+  </si>
+  <si>
+    <t>13706219749</t>
+  </si>
+  <si>
+    <t>13706221006</t>
+  </si>
+  <si>
+    <t>13706232339</t>
+  </si>
+  <si>
+    <t>13706232549</t>
+  </si>
+  <si>
+    <t>13706237065</t>
+  </si>
+  <si>
+    <t>13706249902</t>
+  </si>
+  <si>
+    <t>13706265320</t>
+  </si>
+  <si>
+    <t>13706266075</t>
+  </si>
+  <si>
+    <t>13706549888</t>
+  </si>
+  <si>
+    <t>13706910205</t>
+  </si>
+  <si>
+    <t>13709927898</t>
+  </si>
+  <si>
+    <t>13711734216</t>
+  </si>
+  <si>
+    <t>13713140420</t>
+  </si>
+  <si>
+    <t>13713178255</t>
+  </si>
+  <si>
+    <t>13713767987</t>
+  </si>
+  <si>
+    <t>13715008721</t>
+  </si>
+  <si>
+    <t>13718099358</t>
+  </si>
+  <si>
+    <t>13718471373</t>
+  </si>
+  <si>
+    <t>13718786797</t>
+  </si>
+  <si>
+    <t>13718837383</t>
+  </si>
+  <si>
+    <t>13855039189</t>
+  </si>
+  <si>
+    <t>13855095277</t>
+  </si>
+  <si>
+    <t>13855095279</t>
+  </si>
+  <si>
+    <t>13855371965</t>
+  </si>
+  <si>
+    <t>13856455550</t>
+  </si>
+  <si>
+    <t>13857170588</t>
+  </si>
+  <si>
+    <t>13857308936</t>
+  </si>
+  <si>
+    <t>13857621699</t>
+  </si>
+  <si>
+    <t>13857702811</t>
+  </si>
+  <si>
+    <t>13857781488</t>
+  </si>
+  <si>
+    <t>13858813665</t>
+  </si>
+  <si>
+    <t>13858850092</t>
+  </si>
+  <si>
+    <t>13858877118</t>
+  </si>
+  <si>
+    <t>13858915533</t>
+  </si>
+  <si>
+    <t>13860620022</t>
+  </si>
+  <si>
+    <t>13861155771</t>
+  </si>
+  <si>
+    <t>13861168787</t>
+  </si>
+  <si>
+    <t>13861204893</t>
+  </si>
+  <si>
+    <t>13861300025</t>
+  </si>
+  <si>
+    <t>13861300130</t>
+  </si>
+  <si>
+    <t>13861300173</t>
+  </si>
+  <si>
+    <t>13861300242</t>
+  </si>
+  <si>
+    <t>13861300272</t>
+  </si>
+  <si>
+    <t>13861300483</t>
+  </si>
+  <si>
+    <t>13861300586</t>
+  </si>
+  <si>
+    <t>13861300904</t>
+  </si>
+  <si>
+    <t>13861300913</t>
+  </si>
+  <si>
+    <t>13861300938</t>
+  </si>
+  <si>
+    <t>13861301514</t>
+  </si>
+  <si>
+    <t>13861301836</t>
+  </si>
+  <si>
+    <t>13861302336</t>
+  </si>
+  <si>
+    <t>13861302420</t>
+  </si>
+  <si>
+    <t>13861302461</t>
+  </si>
+  <si>
+    <t>13861302479</t>
+  </si>
+  <si>
+    <t>13861302580</t>
+  </si>
+  <si>
+    <t>13861302938</t>
+  </si>
+  <si>
+    <t>13861303177</t>
+  </si>
+  <si>
+    <t>13861303573</t>
+  </si>
+  <si>
+    <t>13861303660</t>
+  </si>
+  <si>
+    <t>13861303803</t>
+  </si>
+  <si>
+    <t>13861304010</t>
+  </si>
+  <si>
+    <t>13861304408</t>
+  </si>
+  <si>
+    <t>13861304613</t>
+  </si>
+  <si>
+    <t>13861304981</t>
+  </si>
+  <si>
+    <t>13861304999</t>
+  </si>
+  <si>
+    <t>13861305134</t>
+  </si>
+  <si>
+    <t>13861305234</t>
+  </si>
+  <si>
+    <t>13861305310</t>
+  </si>
+  <si>
+    <t>13861305332</t>
+  </si>
+  <si>
+    <t>13861305350</t>
+  </si>
+  <si>
+    <t>13861305576</t>
+  </si>
+  <si>
+    <t>13861305800</t>
+  </si>
+  <si>
+    <t>13861305888</t>
+  </si>
+  <si>
+    <t>13861306044</t>
+  </si>
+  <si>
+    <t>13861306111</t>
+  </si>
+  <si>
+    <t>13861306252</t>
+  </si>
+  <si>
+    <t>13861306561</t>
+  </si>
+  <si>
+    <t>13861306576</t>
+  </si>
+  <si>
+    <t>13861306678</t>
+  </si>
+  <si>
+    <t>13861306838</t>
+  </si>
+  <si>
+    <t>13861306848</t>
+  </si>
+  <si>
+    <t>13861307079</t>
+  </si>
+  <si>
+    <t>13861307209</t>
+  </si>
+  <si>
+    <t>13861307217</t>
+  </si>
+  <si>
+    <t>13861307645</t>
+  </si>
+  <si>
+    <t>13861307767</t>
+  </si>
+  <si>
+    <t>13861308119</t>
+  </si>
+  <si>
+    <t>13861308370</t>
+  </si>
+  <si>
+    <t>13861308373</t>
+  </si>
+  <si>
+    <t>13861308437</t>
+  </si>
+  <si>
+    <t>13861308880</t>
+  </si>
+  <si>
+    <t>13861309020</t>
+  </si>
+  <si>
+    <t>13861309040</t>
+  </si>
+  <si>
+    <t>13861309121</t>
+  </si>
+  <si>
+    <t>13861309153</t>
+  </si>
+  <si>
+    <t>13861309332</t>
+  </si>
+  <si>
+    <t>13861309763</t>
+  </si>
+  <si>
+    <t>13861309993</t>
+  </si>
+  <si>
+    <t>13861310081</t>
+  </si>
+  <si>
+    <t>13861310307</t>
+  </si>
+  <si>
+    <t>13861310593</t>
+  </si>
+  <si>
+    <t>13861311258</t>
+  </si>
+  <si>
+    <t>13861311717</t>
+  </si>
+  <si>
+    <t>13861311885</t>
+  </si>
+  <si>
+    <t>13861311958</t>
+  </si>
+  <si>
+    <t>13861312855</t>
+  </si>
+  <si>
+    <t>13861312859</t>
+  </si>
+  <si>
+    <t>13861313199</t>
+  </si>
+  <si>
+    <t>13861313213</t>
+  </si>
+  <si>
+    <t>13861313309</t>
+  </si>
+  <si>
+    <t>13861313447</t>
+  </si>
+  <si>
+    <t>13861313598</t>
+  </si>
+  <si>
+    <t>13861313764</t>
+  </si>
+  <si>
+    <t>13861313871</t>
+  </si>
+  <si>
+    <t>13861313933</t>
+  </si>
+  <si>
+    <t>13861313973</t>
+  </si>
+  <si>
+    <t>13861314024</t>
+  </si>
+  <si>
+    <t>13861314212</t>
+  </si>
+  <si>
+    <t>13861314385</t>
+  </si>
+  <si>
+    <t>13861314588</t>
+  </si>
+  <si>
+    <t>13861314868</t>
+  </si>
+  <si>
+    <t>13861315360</t>
+  </si>
+  <si>
+    <t>13861315418</t>
+  </si>
+  <si>
+    <t>13861315454</t>
+  </si>
+  <si>
+    <t>13861315652</t>
+  </si>
+  <si>
+    <t>13861316008</t>
+  </si>
+  <si>
+    <t>13861316022</t>
+  </si>
+  <si>
+    <t>13861316147</t>
+  </si>
+  <si>
+    <t>13861316153</t>
+  </si>
+  <si>
+    <t>13861316162</t>
+  </si>
+  <si>
+    <t>13861316165</t>
+  </si>
+  <si>
+    <t>13861316169</t>
+  </si>
+  <si>
+    <t>13861316170</t>
+  </si>
+  <si>
+    <t>13861316606</t>
+  </si>
+  <si>
+    <t>13861317060</t>
+  </si>
+  <si>
+    <t>13861317189</t>
+  </si>
+  <si>
+    <t>13861317372</t>
+  </si>
+  <si>
+    <t>13861317392</t>
+  </si>
+  <si>
+    <t>13861317791</t>
+  </si>
+  <si>
+    <t>13861317979</t>
+  </si>
+  <si>
+    <t>13861318276</t>
+  </si>
+  <si>
+    <t>13861318422</t>
+  </si>
+  <si>
+    <t>13861318558</t>
+  </si>
+  <si>
+    <t>13861318726</t>
+  </si>
+  <si>
+    <t>13861318838</t>
+  </si>
+  <si>
+    <t>13861318861</t>
+  </si>
+  <si>
+    <t>13861318907</t>
+  </si>
+  <si>
+    <t>13861318979</t>
+  </si>
+  <si>
+    <t>13861319267</t>
+  </si>
+  <si>
+    <t>13861319333</t>
+  </si>
+  <si>
+    <t>13861319385</t>
+  </si>
+  <si>
+    <t>13861319640</t>
+  </si>
+  <si>
+    <t>13861319699</t>
+  </si>
+  <si>
+    <t>13861320368</t>
+  </si>
+  <si>
+    <t>13861320800</t>
+  </si>
+  <si>
+    <t>13861320828</t>
+  </si>
+  <si>
+    <t>13861321027</t>
+  </si>
+  <si>
+    <t>13861321038</t>
+  </si>
+  <si>
+    <t>13861321124</t>
+  </si>
+  <si>
+    <t>13861321349</t>
+  </si>
+  <si>
+    <t>13861321388</t>
+  </si>
+  <si>
+    <t>13861321507</t>
+  </si>
+  <si>
+    <t>13861321515</t>
+  </si>
+  <si>
+    <t>13861321521</t>
+  </si>
+  <si>
+    <t>13861321587</t>
+  </si>
+  <si>
+    <t>13861321800</t>
+  </si>
+  <si>
+    <t>13861322229</t>
+  </si>
+  <si>
+    <t>13861322319</t>
+  </si>
+  <si>
+    <t>13861322413</t>
+  </si>
+  <si>
+    <t>13861322508</t>
+  </si>
+  <si>
+    <t>13861322585</t>
+  </si>
+  <si>
+    <t>13861322722</t>
+  </si>
+  <si>
+    <t>13861322738</t>
+  </si>
+  <si>
+    <t>13861322859</t>
+  </si>
+  <si>
+    <t>13861322888</t>
+  </si>
+  <si>
+    <t>13861322958</t>
+  </si>
+  <si>
+    <t>13861323020</t>
+  </si>
+  <si>
+    <t>13861323123</t>
+  </si>
+  <si>
+    <t>13861323263</t>
+  </si>
+  <si>
+    <t>13861323272</t>
+  </si>
+  <si>
+    <t>13861323435</t>
+  </si>
+  <si>
+    <t>13861323645</t>
+  </si>
+  <si>
+    <t>13861323759</t>
+  </si>
+  <si>
+    <t>13861323933</t>
+  </si>
+  <si>
+    <t>13861323952</t>
+  </si>
+  <si>
+    <t>13861324072</t>
+  </si>
+  <si>
+    <t>13861324228</t>
+  </si>
+  <si>
+    <t>13861325023</t>
+  </si>
+  <si>
+    <t>13861325166</t>
+  </si>
+  <si>
+    <t>13861325180</t>
+  </si>
+  <si>
+    <t>13861325183</t>
+  </si>
+  <si>
+    <t>13861325206</t>
+  </si>
+  <si>
+    <t>13861325227</t>
+  </si>
+  <si>
+    <t>13861325269</t>
+  </si>
+  <si>
+    <t>13861325368</t>
+  </si>
+  <si>
+    <t>13861325975</t>
+  </si>
+  <si>
+    <t>13861326066</t>
+  </si>
+  <si>
+    <t>13861326083</t>
+  </si>
+  <si>
+    <t>13861326148</t>
+  </si>
+  <si>
+    <t>13861326259</t>
+  </si>
+  <si>
+    <t>13861326539</t>
+  </si>
+  <si>
+    <t>13861326637</t>
+  </si>
+  <si>
+    <t>13861326699</t>
+  </si>
+  <si>
+    <t>13861326779</t>
+  </si>
+  <si>
+    <t>13861326891</t>
+  </si>
+  <si>
+    <t>13861326966</t>
+  </si>
+  <si>
+    <t>13861327049</t>
+  </si>
+  <si>
+    <t>13861327221</t>
+  </si>
+  <si>
+    <t>13861327692</t>
+  </si>
+  <si>
+    <t>13861328065</t>
+  </si>
+  <si>
+    <t>13861328118</t>
+  </si>
+  <si>
+    <t>13861328193</t>
+  </si>
+  <si>
+    <t>13861328513</t>
+  </si>
+  <si>
+    <t>13861328892</t>
+  </si>
+  <si>
+    <t>13861328957</t>
+  </si>
+  <si>
+    <t>13861328982</t>
+  </si>
+  <si>
+    <t>13861329007</t>
+  </si>
+  <si>
+    <t>13861329119</t>
+  </si>
+  <si>
+    <t>13861329568</t>
+  </si>
+  <si>
+    <t>13861329595</t>
+  </si>
+  <si>
+    <t>13861329714</t>
+  </si>
+  <si>
+    <t>13861329918</t>
+  </si>
+  <si>
+    <t>13861330230</t>
+  </si>
+  <si>
+    <t>13861330302</t>
+  </si>
+  <si>
+    <t>13861330306</t>
+  </si>
+  <si>
+    <t>13861330719</t>
+  </si>
+  <si>
+    <t>13861330927</t>
+  </si>
+  <si>
+    <t>13861331181</t>
+  </si>
+  <si>
+    <t>13861331487</t>
+  </si>
+  <si>
+    <t>13861331588</t>
+  </si>
+  <si>
+    <t>13861331853</t>
+  </si>
+  <si>
+    <t>13861331992</t>
+  </si>
+  <si>
+    <t>13861332130</t>
+  </si>
+  <si>
+    <t>13861332235</t>
+  </si>
+  <si>
+    <t>13861332525</t>
+  </si>
+  <si>
+    <t>13861332538</t>
+  </si>
+  <si>
+    <t>13861332764</t>
+  </si>
+  <si>
+    <t>13861332905</t>
+  </si>
+  <si>
+    <t>13861332975</t>
+  </si>
+  <si>
+    <t>13861333350</t>
+  </si>
+  <si>
+    <t>13861333465</t>
+  </si>
+  <si>
+    <t>13861333872</t>
+  </si>
+  <si>
+    <t>13861334053</t>
+  </si>
+  <si>
+    <t>13861334597</t>
+  </si>
+  <si>
+    <t>13861334788</t>
+  </si>
+  <si>
+    <t>13861335351</t>
+  </si>
+  <si>
+    <t>13861335400</t>
+  </si>
+  <si>
+    <t>13861335503</t>
+  </si>
+  <si>
+    <t>13861335660</t>
+  </si>
+  <si>
+    <t>13861335809</t>
+  </si>
+  <si>
+    <t>13861335897</t>
+  </si>
+  <si>
+    <t>13861336003</t>
+  </si>
+  <si>
+    <t>13861336058</t>
+  </si>
+  <si>
+    <t>13861336137</t>
+  </si>
+  <si>
+    <t>13861336179</t>
+  </si>
+  <si>
+    <t>13861336527</t>
+  </si>
+  <si>
+    <t>13861336686</t>
+  </si>
+  <si>
+    <t>13861336881</t>
+  </si>
+  <si>
+    <t>13861336983</t>
+  </si>
+  <si>
+    <t>13861337128</t>
+  </si>
+  <si>
+    <t>13861337612</t>
+  </si>
+  <si>
+    <t>13861338110</t>
+  </si>
+  <si>
+    <t>13861338137</t>
+  </si>
+  <si>
+    <t>13861338477</t>
+  </si>
+  <si>
+    <t>13861338661</t>
+  </si>
+  <si>
+    <t>13861339388</t>
+  </si>
+  <si>
+    <t>13861339543</t>
+  </si>
+  <si>
+    <t>13861339671</t>
+  </si>
+  <si>
+    <t>13861339822</t>
+  </si>
+  <si>
+    <t>13861339873</t>
+  </si>
+  <si>
+    <t>13861339988</t>
+  </si>
+  <si>
+    <t>13861350166</t>
+  </si>
+  <si>
+    <t>13861541588</t>
+  </si>
+  <si>
+    <t>13861621993</t>
+  </si>
+  <si>
+    <t>13861646478</t>
+  </si>
+  <si>
+    <t>13861824026</t>
+  </si>
+  <si>
+    <t>13861919124</t>
+  </si>
+  <si>
+    <t>13861976456</t>
+  </si>
+  <si>
+    <t>13862000112</t>
+  </si>
+  <si>
+    <t>13862000123</t>
+  </si>
+  <si>
+    <t>13862000200</t>
+  </si>
+  <si>
+    <t>13862000482</t>
+  </si>
+  <si>
+    <t>13862000614</t>
+  </si>
+  <si>
+    <t>13862000706</t>
+  </si>
+  <si>
+    <t>13862000769</t>
+  </si>
+  <si>
+    <t>13862000782</t>
+  </si>
+  <si>
+    <t>13862000790</t>
+  </si>
+  <si>
+    <t>13862000816</t>
+  </si>
+  <si>
+    <t>13862000888</t>
+  </si>
+  <si>
+    <t>13862000912</t>
+  </si>
+  <si>
+    <t>13862001083</t>
+  </si>
+  <si>
+    <t>13862001142</t>
+  </si>
+  <si>
+    <t>13862001145</t>
+  </si>
+  <si>
+    <t>13862001258</t>
+  </si>
+  <si>
+    <t>13862001416</t>
+  </si>
+  <si>
+    <t>13862001797</t>
+  </si>
+  <si>
+    <t>13862001805</t>
+  </si>
+  <si>
+    <t>13862001865</t>
+  </si>
+  <si>
+    <t>13862001911</t>
+  </si>
+  <si>
+    <t>13862001960</t>
+  </si>
+  <si>
+    <t>13862002298</t>
+  </si>
+  <si>
+    <t>13862002525</t>
+  </si>
+  <si>
+    <t>13862002621</t>
+  </si>
+  <si>
+    <t>13862002728</t>
+  </si>
+  <si>
+    <t>13862002873</t>
+  </si>
+  <si>
+    <t>13862003400</t>
+  </si>
+  <si>
+    <t>13862003427</t>
+  </si>
+  <si>
+    <t>13862003431</t>
+  </si>
+  <si>
+    <t>13862003613</t>
+  </si>
+  <si>
+    <t>13862004011</t>
+  </si>
+  <si>
+    <t>13862004108</t>
+  </si>
+  <si>
+    <t>13862004444</t>
+  </si>
+  <si>
+    <t>13862004500</t>
+  </si>
+  <si>
+    <t>13862004577</t>
+  </si>
+  <si>
+    <t>13862004813</t>
+  </si>
+  <si>
+    <t>13862005508</t>
+  </si>
+  <si>
+    <t>13862005577</t>
+  </si>
+  <si>
+    <t>13862005612</t>
+  </si>
+  <si>
+    <t>13862005802</t>
+  </si>
+  <si>
+    <t>13862006247</t>
+  </si>
+  <si>
+    <t>13862006340</t>
+  </si>
+  <si>
+    <t>13862006494</t>
+  </si>
+  <si>
+    <t>13862006566</t>
+  </si>
+  <si>
+    <t>13862006650</t>
+  </si>
+  <si>
+    <t>13862006654</t>
+  </si>
+  <si>
+    <t>13862006818</t>
+  </si>
+  <si>
+    <t>13862006918</t>
+  </si>
+  <si>
+    <t>13862006920</t>
+  </si>
+  <si>
+    <t>13862006942</t>
+  </si>
+  <si>
+    <t>13862007053</t>
+  </si>
+  <si>
+    <t>13862007213</t>
+  </si>
+  <si>
+    <t>13862007484</t>
+  </si>
+  <si>
+    <t>13862007954</t>
+  </si>
+  <si>
+    <t>13862008181</t>
+  </si>
+  <si>
+    <t>13862008284</t>
+  </si>
+  <si>
+    <t>13862008424</t>
+  </si>
+  <si>
+    <t>13862008427</t>
+  </si>
+  <si>
+    <t>13862008533</t>
+  </si>
+  <si>
+    <t>13862008748</t>
+  </si>
+  <si>
+    <t>13862008851</t>
+  </si>
+  <si>
+    <t>13862008889</t>
+  </si>
+  <si>
+    <t>13862009362</t>
+  </si>
+  <si>
+    <t>13862009720</t>
+  </si>
+  <si>
+    <t>13862009943</t>
+  </si>
+  <si>
+    <t>13862010073</t>
+  </si>
+  <si>
+    <t>13862010105</t>
+  </si>
+  <si>
+    <t>13862010170</t>
+  </si>
+  <si>
+    <t>13862010486</t>
+  </si>
+  <si>
+    <t>13862010680</t>
+  </si>
+  <si>
+    <t>13862010742</t>
+  </si>
+  <si>
+    <t>13862010761</t>
+  </si>
+  <si>
+    <t>13862010782</t>
+  </si>
+  <si>
+    <t>13862010905</t>
+  </si>
+  <si>
+    <t>13862011001</t>
+  </si>
+  <si>
+    <t>13862011230</t>
+  </si>
+  <si>
+    <t>13862011572</t>
+  </si>
+  <si>
+    <t>13862011631</t>
+  </si>
+  <si>
+    <t>13862011808</t>
+  </si>
+  <si>
+    <t>13862011950</t>
+  </si>
+  <si>
+    <t>13862012034</t>
+  </si>
+  <si>
+    <t>13862012547</t>
+  </si>
+  <si>
+    <t>13862012681</t>
+  </si>
+  <si>
+    <t>13862012728</t>
+  </si>
+  <si>
+    <t>13862012878</t>
+  </si>
+  <si>
+    <t>13862013083</t>
+  </si>
+  <si>
+    <t>13862013553</t>
+  </si>
+  <si>
+    <t>13862013561</t>
+  </si>
+  <si>
+    <t>13862013821</t>
+  </si>
+  <si>
+    <t>13862013968</t>
+  </si>
+  <si>
+    <t>13862014774</t>
+  </si>
+  <si>
+    <t>13862014800</t>
+  </si>
+  <si>
+    <t>13862014939</t>
+  </si>
+  <si>
+    <t>13862014958</t>
+  </si>
+  <si>
+    <t>13862015051</t>
+  </si>
+  <si>
+    <t>13862015112</t>
+  </si>
+  <si>
+    <t>13862015274</t>
+  </si>
+  <si>
+    <t>13862015291</t>
+  </si>
+  <si>
+    <t>13862015293</t>
+  </si>
+  <si>
+    <t>13862015526</t>
+  </si>
+  <si>
+    <t>13862015814</t>
+  </si>
+  <si>
+    <t>13862015981</t>
+  </si>
+  <si>
+    <t>13862015999</t>
+  </si>
+  <si>
+    <t>13862016053</t>
+  </si>
+  <si>
+    <t>13862016203</t>
+  </si>
+  <si>
+    <t>13862016267</t>
+  </si>
+  <si>
+    <t>13862017272</t>
+  </si>
+  <si>
+    <t>13862017702</t>
+  </si>
+  <si>
+    <t>13862017735</t>
+  </si>
+  <si>
+    <t>13862017785</t>
+  </si>
+  <si>
+    <t>13862017799</t>
+  </si>
+  <si>
+    <t>13862017877</t>
+  </si>
+  <si>
+    <t>13862017907</t>
+  </si>
+  <si>
+    <t>13862018046</t>
+  </si>
+  <si>
+    <t>13862018056</t>
+  </si>
+  <si>
+    <t>13862018107</t>
+  </si>
+  <si>
+    <t>13862018201</t>
+  </si>
+  <si>
+    <t>13862018358</t>
+  </si>
+  <si>
+    <t>13862018363</t>
+  </si>
+  <si>
+    <t>13862018502</t>
+  </si>
+  <si>
+    <t>13862018633</t>
+  </si>
+  <si>
+    <t>13862018768</t>
+  </si>
+  <si>
+    <t>13862019135</t>
+  </si>
+  <si>
+    <t>13862019201</t>
+  </si>
+  <si>
+    <t>13862019224</t>
+  </si>
+  <si>
+    <t>13862019270</t>
+  </si>
+  <si>
+    <t>13862019282</t>
+  </si>
+  <si>
+    <t>13862019399</t>
+  </si>
+  <si>
+    <t>13862019514</t>
+  </si>
+  <si>
+    <t>13862019625</t>
+  </si>
+  <si>
+    <t>13862019837</t>
+  </si>
+  <si>
+    <t>13862020676</t>
+  </si>
+  <si>
+    <t>13862020724</t>
+  </si>
+  <si>
+    <t>13862020762</t>
+  </si>
+  <si>
+    <t>13862020928</t>
+  </si>
+  <si>
+    <t>13862021017</t>
+  </si>
+  <si>
+    <t>13862021070</t>
+  </si>
+  <si>
+    <t>13862021089</t>
+  </si>
+  <si>
+    <t>13862021732</t>
+  </si>
+  <si>
+    <t>13862021875</t>
+  </si>
+  <si>
+    <t>13862021933</t>
+  </si>
+  <si>
+    <t>13862021960</t>
+  </si>
+  <si>
+    <t>13862022378</t>
+  </si>
+  <si>
+    <t>13862022422</t>
+  </si>
+  <si>
+    <t>13862022435</t>
+  </si>
+  <si>
+    <t>13862022537</t>
+  </si>
+  <si>
+    <t>13862022699</t>
+  </si>
+  <si>
+    <t>13862022730</t>
+  </si>
+  <si>
+    <t>13862022806</t>
+  </si>
+  <si>
+    <t>13862023420</t>
+  </si>
+  <si>
+    <t>13862023505</t>
+  </si>
+  <si>
+    <t>13862023569</t>
+  </si>
+  <si>
+    <t>13862023620</t>
+  </si>
+  <si>
+    <t>13862023665</t>
+  </si>
+  <si>
+    <t>13862023839</t>
+  </si>
+  <si>
+    <t>13862023876</t>
+  </si>
+  <si>
+    <t>13862024183</t>
+  </si>
+  <si>
+    <t>13862024266</t>
+  </si>
+  <si>
+    <t>13862024399</t>
+  </si>
+  <si>
+    <t>13862024570</t>
+  </si>
+  <si>
+    <t>13862024733</t>
+  </si>
+  <si>
+    <t>13862024834</t>
+  </si>
+  <si>
+    <t>13862024938</t>
+  </si>
+  <si>
+    <t>13862025553</t>
+  </si>
+  <si>
+    <t>13862025890</t>
+  </si>
+  <si>
+    <t>13862026168</t>
+  </si>
+  <si>
+    <t>13862026217</t>
+  </si>
+  <si>
+    <t>13862026751</t>
+  </si>
+  <si>
+    <t>13862026881</t>
+  </si>
+  <si>
+    <t>13862026997</t>
+  </si>
+  <si>
+    <t>13862027272</t>
+  </si>
+  <si>
+    <t>13862027392</t>
+  </si>
+  <si>
+    <t>13862027557</t>
+  </si>
+  <si>
+    <t>13862027733</t>
+  </si>
+  <si>
+    <t>13862027790</t>
+  </si>
+  <si>
+    <t>13862027825</t>
+  </si>
+  <si>
+    <t>13862027833</t>
+  </si>
+  <si>
+    <t>13862027877</t>
+  </si>
+  <si>
+    <t>13862027919</t>
+  </si>
+  <si>
+    <t>13862027956</t>
+  </si>
+  <si>
+    <t>13862028096</t>
+  </si>
+  <si>
+    <t>13862028181</t>
+  </si>
+  <si>
+    <t>13862028500</t>
+  </si>
+  <si>
+    <t>13862028520</t>
+  </si>
+  <si>
+    <t>13862028591</t>
+  </si>
+  <si>
+    <t>13862028653</t>
+  </si>
+  <si>
+    <t>13862028801</t>
+  </si>
+  <si>
+    <t>13862028802</t>
+  </si>
+  <si>
+    <t>13862029230</t>
+  </si>
+  <si>
+    <t>13862029306</t>
+  </si>
+  <si>
+    <t>13862029670</t>
+  </si>
+  <si>
+    <t>13862029701</t>
+  </si>
+  <si>
+    <t>13862029836</t>
+  </si>
+  <si>
+    <t>13862030530</t>
+  </si>
+  <si>
+    <t>13862031359</t>
+  </si>
+  <si>
+    <t>13862031408</t>
+  </si>
+  <si>
+    <t>13862031440</t>
+  </si>
+  <si>
+    <t>13862031486</t>
+  </si>
+  <si>
+    <t>13862032195</t>
+  </si>
+  <si>
+    <t>13862032341</t>
+  </si>
+  <si>
+    <t>13862032497</t>
+  </si>
+  <si>
+    <t>13862032708</t>
+  </si>
+  <si>
+    <t>13862033036</t>
+  </si>
+  <si>
+    <t>13862033053</t>
+  </si>
+  <si>
+    <t>13862033649</t>
+  </si>
+  <si>
+    <t>13862033679</t>
+  </si>
+  <si>
+    <t>13862033933</t>
+  </si>
+  <si>
+    <t>13862034028</t>
+  </si>
+  <si>
+    <t>13862034087</t>
+  </si>
+  <si>
+    <t>13862034389</t>
+  </si>
+  <si>
+    <t>13862034490</t>
+  </si>
+  <si>
+    <t>13862034507</t>
+  </si>
+  <si>
+    <t>13862034712</t>
+  </si>
+  <si>
+    <t>13862034832</t>
+  </si>
+  <si>
+    <t>13862034999</t>
+  </si>
+  <si>
+    <t>13862035038</t>
+  </si>
+  <si>
+    <t>13862035178</t>
+  </si>
+  <si>
+    <t>13862035381</t>
+  </si>
+  <si>
+    <t>13862035636</t>
+  </si>
+  <si>
+    <t>13862035888</t>
+  </si>
+  <si>
+    <t>13862036033</t>
+  </si>
+  <si>
+    <t>13862036055</t>
+  </si>
+  <si>
+    <t>13862036117</t>
+  </si>
+  <si>
+    <t>13862036342</t>
+  </si>
+  <si>
+    <t>13862036566</t>
+  </si>
+  <si>
+    <t>13862036818</t>
+  </si>
+  <si>
+    <t>13862036923</t>
+  </si>
+  <si>
+    <t>13862036926</t>
+  </si>
+  <si>
+    <t>13862037184</t>
+  </si>
+  <si>
+    <t>13862037282</t>
+  </si>
+  <si>
+    <t>13862037336</t>
+  </si>
+  <si>
+    <t>13862037350</t>
+  </si>
+  <si>
+    <t>13862037563</t>
+  </si>
+  <si>
+    <t>13862037654</t>
+  </si>
+  <si>
+    <t>13862037959</t>
+  </si>
+  <si>
+    <t>13862037998</t>
+  </si>
+  <si>
+    <t>13862038854</t>
+  </si>
+  <si>
+    <t>13862038887</t>
+  </si>
+  <si>
+    <t>13862038909</t>
+  </si>
+  <si>
+    <t>13862038914</t>
+  </si>
+  <si>
+    <t>13862039047</t>
+  </si>
+  <si>
+    <t>13862039179</t>
+  </si>
+  <si>
+    <t>13862039331</t>
+  </si>
+  <si>
+    <t>13862039388</t>
+  </si>
+  <si>
+    <t>13862039843</t>
+  </si>
+  <si>
+    <t>13862040059</t>
+  </si>
+  <si>
+    <t>13862040092</t>
+  </si>
+  <si>
+    <t>13862040120</t>
+  </si>
+  <si>
+    <t>13862040359</t>
+  </si>
+  <si>
+    <t>13862040684</t>
+  </si>
+  <si>
+    <t>13862040813</t>
+  </si>
+  <si>
+    <t>13862041151</t>
+  </si>
+  <si>
+    <t>13862041256</t>
+  </si>
+  <si>
+    <t>13862041515</t>
+  </si>
+  <si>
+    <t>13862041608</t>
+  </si>
+  <si>
+    <t>13862041650</t>
+  </si>
+  <si>
+    <t>13862041781</t>
+  </si>
+  <si>
+    <t>13862041886</t>
+  </si>
+  <si>
+    <t>13862041927</t>
+  </si>
+  <si>
+    <t>13862042086</t>
+  </si>
+  <si>
+    <t>13862042419</t>
+  </si>
+  <si>
+    <t>13862042512</t>
+  </si>
+  <si>
+    <t>13862043105</t>
+  </si>
+  <si>
+    <t>13862043580</t>
+  </si>
+  <si>
+    <t>13862043806</t>
+  </si>
+  <si>
+    <t>13862043886</t>
+  </si>
+  <si>
+    <t>13862044088</t>
+  </si>
+  <si>
+    <t>13862044620</t>
+  </si>
+  <si>
+    <t>13862044722</t>
+  </si>
+  <si>
+    <t>13862044778</t>
+  </si>
+  <si>
+    <t>13862044870</t>
+  </si>
+  <si>
+    <t>13862045143</t>
+  </si>
+  <si>
+    <t>13862045151</t>
+  </si>
+  <si>
+    <t>13862046354</t>
+  </si>
+  <si>
+    <t>13862046362</t>
+  </si>
+  <si>
+    <t>13862046550</t>
+  </si>
+  <si>
+    <t>13862046646</t>
+  </si>
+  <si>
+    <t>13862047014</t>
+  </si>
+  <si>
+    <t>13862047090</t>
+  </si>
+  <si>
+    <t>13862047109</t>
+  </si>
+  <si>
+    <t>13862047169</t>
+  </si>
+  <si>
+    <t>13862047270</t>
+  </si>
+  <si>
+    <t>13862047391</t>
+  </si>
+  <si>
+    <t>13862047665</t>
+  </si>
+  <si>
+    <t>13862047681</t>
+  </si>
+  <si>
+    <t>13862047908</t>
+  </si>
+  <si>
+    <t>13862048048</t>
+  </si>
+  <si>
+    <t>13862048425</t>
+  </si>
+  <si>
+    <t>13862048693</t>
+  </si>
+  <si>
+    <t>13862048796</t>
+  </si>
+  <si>
+    <t>13862049329</t>
+  </si>
+  <si>
+    <t>13862049591</t>
+  </si>
+  <si>
+    <t>13862050169</t>
+  </si>
+  <si>
+    <t>13862050213</t>
+  </si>
+  <si>
+    <t>13862050568</t>
+  </si>
+  <si>
+    <t>13862050873</t>
+  </si>
+  <si>
+    <t>13862050909</t>
+  </si>
+  <si>
+    <t>13862051056</t>
+  </si>
+  <si>
+    <t>13862051263</t>
+  </si>
+  <si>
+    <t>13862051415</t>
+  </si>
+  <si>
+    <t>13862051584</t>
+  </si>
+  <si>
+    <t>13862051625</t>
+  </si>
+  <si>
+    <t>13862051845</t>
+  </si>
+  <si>
+    <t>13862051992</t>
+  </si>
+  <si>
+    <t>13862052031</t>
+  </si>
+  <si>
+    <t>13862052049</t>
+  </si>
+  <si>
+    <t>13862052222</t>
+  </si>
+  <si>
+    <t>13862052378</t>
+  </si>
+  <si>
+    <t>13862052530</t>
+  </si>
+  <si>
+    <t>13862052630</t>
+  </si>
+  <si>
+    <t>13862052736</t>
+  </si>
+  <si>
+    <t>13862052825</t>
+  </si>
+  <si>
+    <t>13862052929</t>
+  </si>
+  <si>
+    <t>13862053083</t>
+  </si>
+  <si>
+    <t>13862053140</t>
+  </si>
+  <si>
+    <t>13862053177</t>
+  </si>
+  <si>
+    <t>13862053199</t>
+  </si>
+  <si>
+    <t>13862053309</t>
+  </si>
+  <si>
+    <t>13862053312</t>
+  </si>
+  <si>
+    <t>13862053461</t>
+  </si>
+  <si>
+    <t>13862053600</t>
+  </si>
+  <si>
+    <t>13862053659</t>
+  </si>
+  <si>
+    <t>13862053795</t>
+  </si>
+  <si>
+    <t>13862053849</t>
+  </si>
+  <si>
+    <t>13862054219</t>
+  </si>
+  <si>
+    <t>13862054258</t>
+  </si>
+  <si>
+    <t>13862055581</t>
+  </si>
+  <si>
+    <t>13862055818</t>
+  </si>
+  <si>
+    <t>13862055849</t>
+  </si>
+  <si>
+    <t>13862056073</t>
+  </si>
+  <si>
+    <t>13862056308</t>
+  </si>
+  <si>
+    <t>13862056348</t>
+  </si>
+  <si>
+    <t>13862056530</t>
+  </si>
+  <si>
+    <t>13862056568</t>
+  </si>
+  <si>
+    <t>13862056595</t>
+  </si>
+  <si>
+    <t>13862056681</t>
+  </si>
+  <si>
+    <t>13862056755</t>
+  </si>
+  <si>
+    <t>13862056908</t>
+  </si>
+  <si>
+    <t>13862056979</t>
+  </si>
+  <si>
+    <t>13862057201</t>
+  </si>
+  <si>
+    <t>13862057221</t>
+  </si>
+  <si>
+    <t>13862057236</t>
+  </si>
+  <si>
+    <t>13862057442</t>
+  </si>
+  <si>
+    <t>13862057636</t>
+  </si>
+  <si>
+    <t>13862057701</t>
+  </si>
+  <si>
+    <t>13862057855</t>
+  </si>
+  <si>
+    <t>13862057975</t>
+  </si>
+  <si>
+    <t>13862058006</t>
+  </si>
+  <si>
+    <t>13862058208</t>
+  </si>
+  <si>
+    <t>13862058258</t>
+  </si>
+  <si>
+    <t>13862058302</t>
+  </si>
+  <si>
+    <t>13862058305</t>
+  </si>
+  <si>
+    <t>13862058431</t>
+  </si>
+  <si>
+    <t>13862058491</t>
+  </si>
+  <si>
+    <t>13862058515</t>
+  </si>
+  <si>
+    <t>13862058862</t>
+  </si>
+  <si>
+    <t>13862058890</t>
+  </si>
+  <si>
+    <t>13862059069</t>
+  </si>
+  <si>
+    <t>13862059124</t>
+  </si>
+  <si>
+    <t>13862059161</t>
+  </si>
+  <si>
+    <t>13862059200</t>
+  </si>
+  <si>
+    <t>13862059328</t>
+  </si>
+  <si>
+    <t>13862060085</t>
+  </si>
+  <si>
+    <t>13862060130</t>
+  </si>
+  <si>
+    <t>13862060151</t>
+  </si>
+  <si>
+    <t>13862060156</t>
+  </si>
+  <si>
+    <t>13862060230</t>
+  </si>
+  <si>
+    <t>13862060645</t>
+  </si>
+  <si>
+    <t>13862060876</t>
+  </si>
+  <si>
+    <t>13862061247</t>
+  </si>
+  <si>
+    <t>13862061600</t>
+  </si>
+  <si>
+    <t>13862061738</t>
+  </si>
+  <si>
+    <t>13862062673</t>
+  </si>
+  <si>
+    <t>13862063010</t>
+  </si>
+  <si>
+    <t>13862063135</t>
+  </si>
+  <si>
+    <t>13862063554</t>
+  </si>
+  <si>
+    <t>13862063633</t>
+  </si>
+  <si>
+    <t>13862063778</t>
+  </si>
+  <si>
+    <t>13862063971</t>
+  </si>
+  <si>
+    <t>13862064156</t>
+  </si>
+  <si>
+    <t>13862064165</t>
+  </si>
+  <si>
+    <t>13862064278</t>
+  </si>
+  <si>
+    <t>13862064318</t>
+  </si>
+  <si>
+    <t>13862064789</t>
+  </si>
+  <si>
+    <t>13862064842</t>
+  </si>
+  <si>
+    <t>13862065017</t>
+  </si>
+  <si>
+    <t>13862065193</t>
+  </si>
+  <si>
+    <t>13862065975</t>
+  </si>
+  <si>
+    <t>13862066369</t>
+  </si>
+  <si>
+    <t>13862066381</t>
+  </si>
+  <si>
+    <t>13862066387</t>
+  </si>
+  <si>
+    <t>13862066818</t>
+  </si>
+  <si>
+    <t>13862066900</t>
+  </si>
+  <si>
+    <t>13862066990</t>
+  </si>
+  <si>
+    <t>13862067070</t>
+  </si>
+  <si>
+    <t>13862067153</t>
+  </si>
+  <si>
+    <t>13862067347</t>
+  </si>
+  <si>
+    <t>13862067429</t>
+  </si>
+  <si>
+    <t>13862067761</t>
+  </si>
+  <si>
+    <t>13862068002</t>
+  </si>
+  <si>
+    <t>13862068024</t>
+  </si>
+  <si>
+    <t>13862068059</t>
+  </si>
+  <si>
+    <t>13862068118</t>
+  </si>
+  <si>
+    <t>13862068216</t>
+  </si>
+  <si>
+    <t>13862068301</t>
+  </si>
+  <si>
+    <t>13862068549</t>
+  </si>
+  <si>
+    <t>13862068966</t>
+  </si>
+  <si>
+    <t>13862069196</t>
+  </si>
+  <si>
+    <t>13862069250</t>
+  </si>
+  <si>
+    <t>13862069295</t>
+  </si>
+  <si>
+    <t>13862069357</t>
+  </si>
+  <si>
+    <t>13862070012</t>
+  </si>
+  <si>
+    <t>13862070365</t>
+  </si>
+  <si>
+    <t>13862070409</t>
+  </si>
+  <si>
+    <t>13862070601</t>
+  </si>
+  <si>
+    <t>13862070918</t>
+  </si>
+  <si>
+    <t>13862070925</t>
+  </si>
+  <si>
+    <t>13862071007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3734,6 +2896,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3767,7 +2937,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4074,7 +3244,7 @@
   <dimension ref="A1:A1233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8853,1399 +8023,841 @@
       </c>
     </row>
     <row r="955" spans="1:1">
-      <c r="A955" s="2" t="s">
-        <v>954</v>
-      </c>
+      <c r="A955"/>
     </row>
     <row r="956" spans="1:1">
-      <c r="A956" s="2" t="s">
-        <v>955</v>
-      </c>
+      <c r="A956"/>
     </row>
     <row r="957" spans="1:1">
-      <c r="A957" s="2" t="s">
-        <v>956</v>
-      </c>
+      <c r="A957"/>
     </row>
     <row r="958" spans="1:1">
-      <c r="A958" s="2" t="s">
-        <v>957</v>
-      </c>
+      <c r="A958"/>
     </row>
     <row r="959" spans="1:1">
-      <c r="A959" s="2" t="s">
-        <v>958</v>
-      </c>
+      <c r="A959"/>
     </row>
     <row r="960" spans="1:1">
-      <c r="A960" s="2" t="s">
-        <v>959</v>
-      </c>
+      <c r="A960"/>
     </row>
     <row r="961" spans="1:1">
-      <c r="A961" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="A961"/>
     </row>
     <row r="962" spans="1:1">
-      <c r="A962" s="2" t="s">
-        <v>961</v>
-      </c>
+      <c r="A962"/>
     </row>
     <row r="963" spans="1:1">
-      <c r="A963" s="2" t="s">
-        <v>962</v>
-      </c>
+      <c r="A963"/>
     </row>
     <row r="964" spans="1:1">
-      <c r="A964" s="2" t="s">
-        <v>963</v>
-      </c>
+      <c r="A964"/>
     </row>
     <row r="965" spans="1:1">
-      <c r="A965" s="2" t="s">
-        <v>964</v>
-      </c>
+      <c r="A965"/>
     </row>
     <row r="966" spans="1:1">
-      <c r="A966" s="2" t="s">
-        <v>965</v>
-      </c>
+      <c r="A966"/>
     </row>
     <row r="967" spans="1:1">
-      <c r="A967" s="2" t="s">
-        <v>966</v>
-      </c>
+      <c r="A967"/>
     </row>
     <row r="968" spans="1:1">
-      <c r="A968" s="2" t="s">
-        <v>967</v>
-      </c>
+      <c r="A968"/>
     </row>
     <row r="969" spans="1:1">
-      <c r="A969" s="2" t="s">
-        <v>968</v>
-      </c>
+      <c r="A969"/>
     </row>
     <row r="970" spans="1:1">
-      <c r="A970" s="2" t="s">
-        <v>969</v>
-      </c>
+      <c r="A970"/>
     </row>
     <row r="971" spans="1:1">
-      <c r="A971" s="2" t="s">
-        <v>970</v>
-      </c>
+      <c r="A971"/>
     </row>
     <row r="972" spans="1:1">
-      <c r="A972" s="2" t="s">
-        <v>971</v>
-      </c>
+      <c r="A972"/>
     </row>
     <row r="973" spans="1:1">
-      <c r="A973" s="2" t="s">
-        <v>972</v>
-      </c>
+      <c r="A973"/>
     </row>
     <row r="974" spans="1:1">
-      <c r="A974" s="2" t="s">
-        <v>973</v>
-      </c>
+      <c r="A974"/>
     </row>
     <row r="975" spans="1:1">
-      <c r="A975" s="2" t="s">
-        <v>974</v>
-      </c>
+      <c r="A975"/>
     </row>
     <row r="976" spans="1:1">
-      <c r="A976" s="2" t="s">
-        <v>975</v>
-      </c>
+      <c r="A976"/>
     </row>
     <row r="977" spans="1:1">
-      <c r="A977" s="2" t="s">
-        <v>976</v>
-      </c>
+      <c r="A977"/>
     </row>
     <row r="978" spans="1:1">
-      <c r="A978" s="2" t="s">
-        <v>977</v>
-      </c>
+      <c r="A978"/>
     </row>
     <row r="979" spans="1:1">
-      <c r="A979" s="2" t="s">
-        <v>978</v>
-      </c>
+      <c r="A979"/>
     </row>
     <row r="980" spans="1:1">
-      <c r="A980" s="2" t="s">
-        <v>979</v>
-      </c>
+      <c r="A980"/>
     </row>
     <row r="981" spans="1:1">
-      <c r="A981" s="2" t="s">
-        <v>980</v>
-      </c>
+      <c r="A981"/>
     </row>
     <row r="982" spans="1:1">
-      <c r="A982" s="2" t="s">
-        <v>981</v>
-      </c>
+      <c r="A982"/>
     </row>
     <row r="983" spans="1:1">
-      <c r="A983" s="2" t="s">
-        <v>982</v>
-      </c>
+      <c r="A983"/>
     </row>
     <row r="984" spans="1:1">
-      <c r="A984" s="2" t="s">
-        <v>983</v>
-      </c>
+      <c r="A984"/>
     </row>
     <row r="985" spans="1:1">
-      <c r="A985" s="2" t="s">
-        <v>984</v>
-      </c>
+      <c r="A985"/>
     </row>
     <row r="986" spans="1:1">
-      <c r="A986" s="2" t="s">
-        <v>985</v>
-      </c>
+      <c r="A986"/>
     </row>
     <row r="987" spans="1:1">
-      <c r="A987" s="2" t="s">
-        <v>986</v>
-      </c>
+      <c r="A987"/>
     </row>
     <row r="988" spans="1:1">
-      <c r="A988" s="2" t="s">
-        <v>987</v>
-      </c>
+      <c r="A988"/>
     </row>
     <row r="989" spans="1:1">
-      <c r="A989" s="2" t="s">
-        <v>988</v>
-      </c>
+      <c r="A989"/>
     </row>
     <row r="990" spans="1:1">
-      <c r="A990" s="2" t="s">
-        <v>989</v>
-      </c>
+      <c r="A990"/>
     </row>
     <row r="991" spans="1:1">
-      <c r="A991" s="2" t="s">
-        <v>990</v>
-      </c>
+      <c r="A991"/>
     </row>
     <row r="992" spans="1:1">
-      <c r="A992" s="2" t="s">
-        <v>991</v>
-      </c>
+      <c r="A992"/>
     </row>
     <row r="993" spans="1:1">
-      <c r="A993" s="2" t="s">
-        <v>992</v>
-      </c>
+      <c r="A993"/>
     </row>
     <row r="994" spans="1:1">
-      <c r="A994" s="2" t="s">
-        <v>993</v>
-      </c>
+      <c r="A994"/>
     </row>
     <row r="995" spans="1:1">
-      <c r="A995" s="2" t="s">
-        <v>994</v>
-      </c>
+      <c r="A995"/>
     </row>
     <row r="996" spans="1:1">
-      <c r="A996" s="2" t="s">
-        <v>995</v>
-      </c>
+      <c r="A996"/>
     </row>
     <row r="997" spans="1:1">
-      <c r="A997" s="2" t="s">
-        <v>996</v>
-      </c>
+      <c r="A997"/>
     </row>
     <row r="998" spans="1:1">
-      <c r="A998" s="2" t="s">
-        <v>997</v>
-      </c>
+      <c r="A998"/>
     </row>
     <row r="999" spans="1:1">
-      <c r="A999" s="2" t="s">
-        <v>998</v>
-      </c>
+      <c r="A999"/>
     </row>
     <row r="1000" spans="1:1">
-      <c r="A1000" s="2" t="s">
-        <v>999</v>
-      </c>
+      <c r="A1000"/>
     </row>
     <row r="1001" spans="1:1">
-      <c r="A1001" s="2" t="s">
-        <v>1000</v>
-      </c>
+      <c r="A1001"/>
     </row>
     <row r="1002" spans="1:1">
-      <c r="A1002" s="2" t="s">
-        <v>1001</v>
-      </c>
+      <c r="A1002"/>
     </row>
     <row r="1003" spans="1:1">
-      <c r="A1003" s="2" t="s">
-        <v>1002</v>
-      </c>
+      <c r="A1003"/>
     </row>
     <row r="1004" spans="1:1">
-      <c r="A1004" s="2" t="s">
-        <v>1003</v>
-      </c>
+      <c r="A1004"/>
     </row>
     <row r="1005" spans="1:1">
-      <c r="A1005" s="2" t="s">
-        <v>1004</v>
-      </c>
+      <c r="A1005"/>
     </row>
     <row r="1006" spans="1:1">
-      <c r="A1006" s="2" t="s">
-        <v>1005</v>
-      </c>
+      <c r="A1006"/>
     </row>
     <row r="1007" spans="1:1">
-      <c r="A1007" s="2" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A1007"/>
     </row>
     <row r="1008" spans="1:1">
-      <c r="A1008" s="2" t="s">
-        <v>1007</v>
-      </c>
+      <c r="A1008"/>
     </row>
     <row r="1009" spans="1:1">
-      <c r="A1009" s="2" t="s">
-        <v>1008</v>
-      </c>
+      <c r="A1009"/>
     </row>
     <row r="1010" spans="1:1">
-      <c r="A1010" s="2" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A1010"/>
     </row>
     <row r="1011" spans="1:1">
-      <c r="A1011" s="2" t="s">
-        <v>1010</v>
-      </c>
+      <c r="A1011"/>
     </row>
     <row r="1012" spans="1:1">
-      <c r="A1012" s="2" t="s">
-        <v>1011</v>
-      </c>
+      <c r="A1012"/>
     </row>
     <row r="1013" spans="1:1">
-      <c r="A1013" s="2" t="s">
-        <v>1012</v>
-      </c>
+      <c r="A1013"/>
     </row>
     <row r="1014" spans="1:1">
-      <c r="A1014" s="2" t="s">
-        <v>1013</v>
-      </c>
+      <c r="A1014"/>
     </row>
     <row r="1015" spans="1:1">
-      <c r="A1015" s="2" t="s">
-        <v>1014</v>
-      </c>
+      <c r="A1015"/>
     </row>
     <row r="1016" spans="1:1">
-      <c r="A1016" s="2" t="s">
-        <v>1015</v>
-      </c>
+      <c r="A1016"/>
     </row>
     <row r="1017" spans="1:1">
-      <c r="A1017" s="2" t="s">
-        <v>1016</v>
-      </c>
+      <c r="A1017"/>
     </row>
     <row r="1018" spans="1:1">
-      <c r="A1018" s="2" t="s">
-        <v>1017</v>
-      </c>
+      <c r="A1018"/>
     </row>
     <row r="1019" spans="1:1">
-      <c r="A1019" s="2" t="s">
-        <v>1018</v>
-      </c>
+      <c r="A1019"/>
     </row>
     <row r="1020" spans="1:1">
-      <c r="A1020" s="2" t="s">
-        <v>1019</v>
-      </c>
+      <c r="A1020"/>
     </row>
     <row r="1021" spans="1:1">
-      <c r="A1021" s="2" t="s">
-        <v>1020</v>
-      </c>
+      <c r="A1021"/>
     </row>
     <row r="1022" spans="1:1">
-      <c r="A1022" s="2" t="s">
-        <v>1021</v>
-      </c>
+      <c r="A1022"/>
     </row>
     <row r="1023" spans="1:1">
-      <c r="A1023" s="2" t="s">
-        <v>1022</v>
-      </c>
+      <c r="A1023"/>
     </row>
     <row r="1024" spans="1:1">
-      <c r="A1024" s="2" t="s">
-        <v>1023</v>
-      </c>
+      <c r="A1024"/>
     </row>
     <row r="1025" spans="1:1">
-      <c r="A1025" s="2" t="s">
-        <v>1024</v>
-      </c>
+      <c r="A1025"/>
     </row>
     <row r="1026" spans="1:1">
-      <c r="A1026" s="2" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A1026"/>
     </row>
     <row r="1027" spans="1:1">
-      <c r="A1027" s="2" t="s">
-        <v>1026</v>
-      </c>
+      <c r="A1027"/>
     </row>
     <row r="1028" spans="1:1">
-      <c r="A1028" s="2" t="s">
-        <v>1027</v>
-      </c>
+      <c r="A1028"/>
     </row>
     <row r="1029" spans="1:1">
-      <c r="A1029" s="2" t="s">
-        <v>1028</v>
-      </c>
+      <c r="A1029"/>
     </row>
     <row r="1030" spans="1:1">
-      <c r="A1030" s="2" t="s">
-        <v>1029</v>
-      </c>
+      <c r="A1030"/>
     </row>
     <row r="1031" spans="1:1">
-      <c r="A1031" s="2" t="s">
-        <v>1030</v>
-      </c>
+      <c r="A1031"/>
     </row>
     <row r="1032" spans="1:1">
-      <c r="A1032" s="2" t="s">
-        <v>1031</v>
-      </c>
+      <c r="A1032"/>
     </row>
     <row r="1033" spans="1:1">
-      <c r="A1033" s="2" t="s">
-        <v>1032</v>
-      </c>
+      <c r="A1033"/>
     </row>
     <row r="1034" spans="1:1">
-      <c r="A1034" s="2" t="s">
-        <v>1033</v>
-      </c>
+      <c r="A1034"/>
     </row>
     <row r="1035" spans="1:1">
-      <c r="A1035" s="2" t="s">
-        <v>1034</v>
-      </c>
+      <c r="A1035"/>
     </row>
     <row r="1036" spans="1:1">
-      <c r="A1036" s="2" t="s">
-        <v>1035</v>
-      </c>
+      <c r="A1036"/>
     </row>
     <row r="1037" spans="1:1">
-      <c r="A1037" s="2" t="s">
-        <v>1036</v>
-      </c>
+      <c r="A1037"/>
     </row>
     <row r="1038" spans="1:1">
-      <c r="A1038" s="2" t="s">
-        <v>1037</v>
-      </c>
+      <c r="A1038"/>
     </row>
     <row r="1039" spans="1:1">
-      <c r="A1039" s="2" t="s">
-        <v>1038</v>
-      </c>
+      <c r="A1039"/>
     </row>
     <row r="1040" spans="1:1">
-      <c r="A1040" s="2" t="s">
-        <v>1039</v>
-      </c>
+      <c r="A1040"/>
     </row>
     <row r="1041" spans="1:1">
-      <c r="A1041" s="2" t="s">
-        <v>1040</v>
-      </c>
+      <c r="A1041"/>
     </row>
     <row r="1042" spans="1:1">
-      <c r="A1042" s="2" t="s">
-        <v>1041</v>
-      </c>
+      <c r="A1042"/>
     </row>
     <row r="1043" spans="1:1">
-      <c r="A1043" s="2" t="s">
-        <v>1042</v>
-      </c>
+      <c r="A1043"/>
     </row>
     <row r="1044" spans="1:1">
-      <c r="A1044" s="2" t="s">
-        <v>1043</v>
-      </c>
+      <c r="A1044"/>
     </row>
     <row r="1045" spans="1:1">
-      <c r="A1045" s="2" t="s">
-        <v>1044</v>
-      </c>
+      <c r="A1045"/>
     </row>
     <row r="1046" spans="1:1">
-      <c r="A1046" s="2" t="s">
-        <v>1045</v>
-      </c>
+      <c r="A1046"/>
     </row>
     <row r="1047" spans="1:1">
-      <c r="A1047" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="A1047"/>
     </row>
     <row r="1048" spans="1:1">
-      <c r="A1048" s="2" t="s">
-        <v>1047</v>
-      </c>
+      <c r="A1048"/>
     </row>
     <row r="1049" spans="1:1">
-      <c r="A1049" s="2" t="s">
-        <v>1048</v>
-      </c>
+      <c r="A1049"/>
     </row>
     <row r="1050" spans="1:1">
-      <c r="A1050" s="2" t="s">
-        <v>1049</v>
-      </c>
+      <c r="A1050"/>
     </row>
     <row r="1051" spans="1:1">
-      <c r="A1051" s="2" t="s">
-        <v>1050</v>
-      </c>
+      <c r="A1051"/>
     </row>
     <row r="1052" spans="1:1">
-      <c r="A1052" s="2" t="s">
-        <v>1051</v>
-      </c>
+      <c r="A1052"/>
     </row>
     <row r="1053" spans="1:1">
-      <c r="A1053" s="2" t="s">
-        <v>1052</v>
-      </c>
+      <c r="A1053"/>
     </row>
     <row r="1054" spans="1:1">
-      <c r="A1054" s="2" t="s">
-        <v>1053</v>
-      </c>
+      <c r="A1054"/>
     </row>
     <row r="1055" spans="1:1">
-      <c r="A1055" s="2" t="s">
-        <v>1054</v>
-      </c>
+      <c r="A1055"/>
     </row>
     <row r="1056" spans="1:1">
-      <c r="A1056" s="2" t="s">
-        <v>1055</v>
-      </c>
+      <c r="A1056"/>
     </row>
     <row r="1057" spans="1:1">
-      <c r="A1057" s="2" t="s">
-        <v>1056</v>
-      </c>
+      <c r="A1057"/>
     </row>
     <row r="1058" spans="1:1">
-      <c r="A1058" s="2" t="s">
-        <v>1057</v>
-      </c>
+      <c r="A1058"/>
     </row>
     <row r="1059" spans="1:1">
-      <c r="A1059" s="2" t="s">
-        <v>1058</v>
-      </c>
+      <c r="A1059"/>
     </row>
     <row r="1060" spans="1:1">
-      <c r="A1060" s="2" t="s">
-        <v>1059</v>
-      </c>
+      <c r="A1060"/>
     </row>
     <row r="1061" spans="1:1">
-      <c r="A1061" s="2" t="s">
-        <v>1060</v>
-      </c>
+      <c r="A1061"/>
     </row>
     <row r="1062" spans="1:1">
-      <c r="A1062" s="2" t="s">
-        <v>1061</v>
-      </c>
+      <c r="A1062"/>
     </row>
     <row r="1063" spans="1:1">
-      <c r="A1063" s="2" t="s">
-        <v>1062</v>
-      </c>
+      <c r="A1063"/>
     </row>
     <row r="1064" spans="1:1">
-      <c r="A1064" s="2" t="s">
-        <v>1063</v>
-      </c>
+      <c r="A1064"/>
     </row>
     <row r="1065" spans="1:1">
-      <c r="A1065" s="2" t="s">
-        <v>1064</v>
-      </c>
+      <c r="A1065"/>
     </row>
     <row r="1066" spans="1:1">
-      <c r="A1066" s="2" t="s">
-        <v>1065</v>
-      </c>
+      <c r="A1066"/>
     </row>
     <row r="1067" spans="1:1">
-      <c r="A1067" s="2" t="s">
-        <v>1066</v>
-      </c>
+      <c r="A1067"/>
     </row>
     <row r="1068" spans="1:1">
-      <c r="A1068" s="2" t="s">
-        <v>1067</v>
-      </c>
+      <c r="A1068"/>
     </row>
     <row r="1069" spans="1:1">
-      <c r="A1069" s="2" t="s">
-        <v>1068</v>
-      </c>
+      <c r="A1069"/>
     </row>
     <row r="1070" spans="1:1">
-      <c r="A1070" s="2" t="s">
-        <v>1069</v>
-      </c>
+      <c r="A1070"/>
     </row>
     <row r="1071" spans="1:1">
-      <c r="A1071" s="2" t="s">
-        <v>1070</v>
-      </c>
+      <c r="A1071"/>
     </row>
     <row r="1072" spans="1:1">
-      <c r="A1072" s="2" t="s">
-        <v>1071</v>
-      </c>
+      <c r="A1072"/>
     </row>
     <row r="1073" spans="1:1">
-      <c r="A1073" s="2" t="s">
-        <v>1072</v>
-      </c>
+      <c r="A1073"/>
     </row>
     <row r="1074" spans="1:1">
-      <c r="A1074" s="2" t="s">
-        <v>1073</v>
-      </c>
+      <c r="A1074"/>
     </row>
     <row r="1075" spans="1:1">
-      <c r="A1075" s="2" t="s">
-        <v>1074</v>
-      </c>
+      <c r="A1075"/>
     </row>
     <row r="1076" spans="1:1">
-      <c r="A1076" s="2" t="s">
-        <v>1075</v>
-      </c>
+      <c r="A1076"/>
     </row>
     <row r="1077" spans="1:1">
-      <c r="A1077" s="2" t="s">
-        <v>1076</v>
-      </c>
+      <c r="A1077"/>
     </row>
     <row r="1078" spans="1:1">
-      <c r="A1078" s="2" t="s">
-        <v>1077</v>
-      </c>
+      <c r="A1078"/>
     </row>
     <row r="1079" spans="1:1">
-      <c r="A1079" s="2" t="s">
-        <v>1078</v>
-      </c>
+      <c r="A1079"/>
     </row>
     <row r="1080" spans="1:1">
-      <c r="A1080" s="2" t="s">
-        <v>1079</v>
-      </c>
+      <c r="A1080"/>
     </row>
     <row r="1081" spans="1:1">
-      <c r="A1081" s="2" t="s">
-        <v>1080</v>
-      </c>
+      <c r="A1081"/>
     </row>
     <row r="1082" spans="1:1">
-      <c r="A1082" s="2" t="s">
-        <v>1081</v>
-      </c>
+      <c r="A1082"/>
     </row>
     <row r="1083" spans="1:1">
-      <c r="A1083" s="2" t="s">
-        <v>1082</v>
-      </c>
+      <c r="A1083"/>
     </row>
     <row r="1084" spans="1:1">
-      <c r="A1084" s="2" t="s">
-        <v>1083</v>
-      </c>
+      <c r="A1084"/>
     </row>
     <row r="1085" spans="1:1">
-      <c r="A1085" s="2" t="s">
-        <v>1084</v>
-      </c>
+      <c r="A1085"/>
     </row>
     <row r="1086" spans="1:1">
-      <c r="A1086" s="2" t="s">
-        <v>1085</v>
-      </c>
+      <c r="A1086"/>
     </row>
     <row r="1087" spans="1:1">
-      <c r="A1087" s="2" t="s">
-        <v>1086</v>
-      </c>
+      <c r="A1087"/>
     </row>
     <row r="1088" spans="1:1">
-      <c r="A1088" s="2" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A1088"/>
     </row>
     <row r="1089" spans="1:1">
-      <c r="A1089" s="2" t="s">
-        <v>1088</v>
-      </c>
+      <c r="A1089"/>
     </row>
     <row r="1090" spans="1:1">
-      <c r="A1090" s="2" t="s">
-        <v>1089</v>
-      </c>
+      <c r="A1090"/>
     </row>
     <row r="1091" spans="1:1">
-      <c r="A1091" s="2" t="s">
-        <v>1090</v>
-      </c>
+      <c r="A1091"/>
     </row>
     <row r="1092" spans="1:1">
-      <c r="A1092" s="2" t="s">
-        <v>1091</v>
-      </c>
+      <c r="A1092"/>
     </row>
     <row r="1093" spans="1:1">
-      <c r="A1093" s="2" t="s">
-        <v>1092</v>
-      </c>
+      <c r="A1093"/>
     </row>
     <row r="1094" spans="1:1">
-      <c r="A1094" s="2" t="s">
-        <v>1093</v>
-      </c>
+      <c r="A1094"/>
     </row>
     <row r="1095" spans="1:1">
-      <c r="A1095" s="2" t="s">
-        <v>1094</v>
-      </c>
+      <c r="A1095"/>
     </row>
     <row r="1096" spans="1:1">
-      <c r="A1096" s="2" t="s">
-        <v>1095</v>
-      </c>
+      <c r="A1096"/>
     </row>
     <row r="1097" spans="1:1">
-      <c r="A1097" s="2" t="s">
-        <v>1096</v>
-      </c>
+      <c r="A1097"/>
     </row>
     <row r="1098" spans="1:1">
-      <c r="A1098" s="2" t="s">
-        <v>1097</v>
-      </c>
+      <c r="A1098"/>
     </row>
     <row r="1099" spans="1:1">
-      <c r="A1099" s="2" t="s">
-        <v>1098</v>
-      </c>
+      <c r="A1099"/>
     </row>
     <row r="1100" spans="1:1">
-      <c r="A1100" s="2" t="s">
-        <v>1099</v>
-      </c>
+      <c r="A1100"/>
     </row>
     <row r="1101" spans="1:1">
-      <c r="A1101" s="2" t="s">
-        <v>1100</v>
-      </c>
+      <c r="A1101"/>
     </row>
     <row r="1102" spans="1:1">
-      <c r="A1102" s="2" t="s">
-        <v>1101</v>
-      </c>
+      <c r="A1102"/>
     </row>
     <row r="1103" spans="1:1">
-      <c r="A1103" s="2" t="s">
-        <v>1102</v>
-      </c>
+      <c r="A1103"/>
     </row>
     <row r="1104" spans="1:1">
-      <c r="A1104" s="2" t="s">
-        <v>1103</v>
-      </c>
+      <c r="A1104"/>
     </row>
     <row r="1105" spans="1:1">
-      <c r="A1105" s="2" t="s">
-        <v>1104</v>
-      </c>
+      <c r="A1105"/>
     </row>
     <row r="1106" spans="1:1">
-      <c r="A1106" s="2" t="s">
-        <v>1105</v>
-      </c>
+      <c r="A1106"/>
     </row>
     <row r="1107" spans="1:1">
-      <c r="A1107" s="2" t="s">
-        <v>1106</v>
-      </c>
+      <c r="A1107"/>
     </row>
     <row r="1108" spans="1:1">
-      <c r="A1108" s="2" t="s">
-        <v>1107</v>
-      </c>
+      <c r="A1108"/>
     </row>
     <row r="1109" spans="1:1">
-      <c r="A1109" s="2" t="s">
-        <v>1108</v>
-      </c>
+      <c r="A1109"/>
     </row>
     <row r="1110" spans="1:1">
-      <c r="A1110" s="2" t="s">
-        <v>1109</v>
-      </c>
+      <c r="A1110"/>
     </row>
     <row r="1111" spans="1:1">
-      <c r="A1111" s="2" t="s">
-        <v>1110</v>
-      </c>
+      <c r="A1111"/>
     </row>
     <row r="1112" spans="1:1">
-      <c r="A1112" s="2" t="s">
-        <v>1111</v>
-      </c>
+      <c r="A1112"/>
     </row>
     <row r="1113" spans="1:1">
-      <c r="A1113" s="2" t="s">
-        <v>1112</v>
-      </c>
+      <c r="A1113"/>
     </row>
     <row r="1114" spans="1:1">
-      <c r="A1114" s="2" t="s">
-        <v>1113</v>
-      </c>
+      <c r="A1114"/>
     </row>
     <row r="1115" spans="1:1">
-      <c r="A1115" s="2" t="s">
-        <v>1114</v>
-      </c>
+      <c r="A1115"/>
     </row>
     <row r="1116" spans="1:1">
-      <c r="A1116" s="2" t="s">
-        <v>1115</v>
-      </c>
+      <c r="A1116"/>
     </row>
     <row r="1117" spans="1:1">
-      <c r="A1117" s="2" t="s">
-        <v>1116</v>
-      </c>
+      <c r="A1117"/>
     </row>
     <row r="1118" spans="1:1">
-      <c r="A1118" s="2" t="s">
-        <v>1117</v>
-      </c>
+      <c r="A1118"/>
     </row>
     <row r="1119" spans="1:1">
-      <c r="A1119" s="2" t="s">
-        <v>1118</v>
-      </c>
+      <c r="A1119"/>
     </row>
     <row r="1120" spans="1:1">
-      <c r="A1120" s="2" t="s">
-        <v>1119</v>
-      </c>
+      <c r="A1120"/>
     </row>
     <row r="1121" spans="1:1">
-      <c r="A1121" s="2" t="s">
-        <v>1120</v>
-      </c>
+      <c r="A1121"/>
     </row>
     <row r="1122" spans="1:1">
-      <c r="A1122" s="2" t="s">
-        <v>1121</v>
-      </c>
+      <c r="A1122"/>
     </row>
     <row r="1123" spans="1:1">
-      <c r="A1123" s="2" t="s">
-        <v>1122</v>
-      </c>
+      <c r="A1123"/>
     </row>
     <row r="1124" spans="1:1">
-      <c r="A1124" s="2" t="s">
-        <v>1123</v>
-      </c>
+      <c r="A1124"/>
     </row>
     <row r="1125" spans="1:1">
-      <c r="A1125" s="2" t="s">
-        <v>1124</v>
-      </c>
+      <c r="A1125"/>
     </row>
     <row r="1126" spans="1:1">
-      <c r="A1126" s="2" t="s">
-        <v>1125</v>
-      </c>
+      <c r="A1126"/>
     </row>
     <row r="1127" spans="1:1">
-      <c r="A1127" s="2" t="s">
-        <v>1126</v>
-      </c>
+      <c r="A1127"/>
     </row>
     <row r="1128" spans="1:1">
-      <c r="A1128" s="2" t="s">
-        <v>1127</v>
-      </c>
+      <c r="A1128"/>
     </row>
     <row r="1129" spans="1:1">
-      <c r="A1129" s="2" t="s">
-        <v>1128</v>
-      </c>
+      <c r="A1129"/>
     </row>
     <row r="1130" spans="1:1">
-      <c r="A1130" s="2" t="s">
-        <v>1129</v>
-      </c>
+      <c r="A1130"/>
     </row>
     <row r="1131" spans="1:1">
-      <c r="A1131" s="2" t="s">
-        <v>1130</v>
-      </c>
+      <c r="A1131"/>
     </row>
     <row r="1132" spans="1:1">
-      <c r="A1132" s="2" t="s">
-        <v>1131</v>
-      </c>
+      <c r="A1132"/>
     </row>
     <row r="1133" spans="1:1">
-      <c r="A1133" s="2" t="s">
-        <v>1132</v>
-      </c>
+      <c r="A1133"/>
     </row>
     <row r="1134" spans="1:1">
-      <c r="A1134" s="2" t="s">
-        <v>1133</v>
-      </c>
+      <c r="A1134"/>
     </row>
     <row r="1135" spans="1:1">
-      <c r="A1135" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="A1135"/>
     </row>
     <row r="1136" spans="1:1">
-      <c r="A1136" s="2" t="s">
-        <v>1135</v>
-      </c>
+      <c r="A1136"/>
     </row>
     <row r="1137" spans="1:1">
-      <c r="A1137" s="2" t="s">
-        <v>1136</v>
-      </c>
+      <c r="A1137"/>
     </row>
     <row r="1138" spans="1:1">
-      <c r="A1138" s="2" t="s">
-        <v>1137</v>
-      </c>
+      <c r="A1138"/>
     </row>
     <row r="1139" spans="1:1">
-      <c r="A1139" s="2" t="s">
-        <v>1138</v>
-      </c>
+      <c r="A1139"/>
     </row>
     <row r="1140" spans="1:1">
-      <c r="A1140" s="2" t="s">
-        <v>1139</v>
-      </c>
+      <c r="A1140"/>
     </row>
     <row r="1141" spans="1:1">
-      <c r="A1141" s="2" t="s">
-        <v>1140</v>
-      </c>
+      <c r="A1141"/>
     </row>
     <row r="1142" spans="1:1">
-      <c r="A1142" s="2" t="s">
-        <v>1141</v>
-      </c>
+      <c r="A1142"/>
     </row>
     <row r="1143" spans="1:1">
-      <c r="A1143" s="2" t="s">
-        <v>1142</v>
-      </c>
+      <c r="A1143"/>
     </row>
     <row r="1144" spans="1:1">
-      <c r="A1144" s="2" t="s">
-        <v>1143</v>
-      </c>
+      <c r="A1144"/>
     </row>
     <row r="1145" spans="1:1">
-      <c r="A1145" s="2" t="s">
-        <v>1144</v>
-      </c>
+      <c r="A1145"/>
     </row>
     <row r="1146" spans="1:1">
-      <c r="A1146" s="2" t="s">
-        <v>1145</v>
-      </c>
+      <c r="A1146"/>
     </row>
     <row r="1147" spans="1:1">
-      <c r="A1147" s="2" t="s">
-        <v>1146</v>
-      </c>
+      <c r="A1147"/>
     </row>
     <row r="1148" spans="1:1">
-      <c r="A1148" s="2" t="s">
-        <v>1147</v>
-      </c>
+      <c r="A1148"/>
     </row>
     <row r="1149" spans="1:1">
-      <c r="A1149" s="2" t="s">
-        <v>1148</v>
-      </c>
+      <c r="A1149"/>
     </row>
     <row r="1150" spans="1:1">
-      <c r="A1150" s="2" t="s">
-        <v>1149</v>
-      </c>
+      <c r="A1150"/>
     </row>
     <row r="1151" spans="1:1">
-      <c r="A1151" s="2" t="s">
-        <v>1150</v>
-      </c>
+      <c r="A1151"/>
     </row>
     <row r="1152" spans="1:1">
-      <c r="A1152" s="2" t="s">
-        <v>1151</v>
-      </c>
+      <c r="A1152"/>
     </row>
     <row r="1153" spans="1:1">
-      <c r="A1153" s="2" t="s">
-        <v>1152</v>
-      </c>
+      <c r="A1153"/>
     </row>
     <row r="1154" spans="1:1">
-      <c r="A1154" s="2" t="s">
-        <v>1153</v>
-      </c>
+      <c r="A1154"/>
     </row>
     <row r="1155" spans="1:1">
-      <c r="A1155" s="2" t="s">
-        <v>1154</v>
-      </c>
+      <c r="A1155"/>
     </row>
     <row r="1156" spans="1:1">
-      <c r="A1156" s="2" t="s">
-        <v>1155</v>
-      </c>
+      <c r="A1156"/>
     </row>
     <row r="1157" spans="1:1">
-      <c r="A1157" s="2" t="s">
-        <v>1156</v>
-      </c>
+      <c r="A1157"/>
     </row>
     <row r="1158" spans="1:1">
-      <c r="A1158" s="2" t="s">
-        <v>1157</v>
-      </c>
+      <c r="A1158"/>
     </row>
     <row r="1159" spans="1:1">
-      <c r="A1159" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="A1159"/>
     </row>
     <row r="1160" spans="1:1">
-      <c r="A1160" s="2" t="s">
-        <v>1159</v>
-      </c>
+      <c r="A1160"/>
     </row>
     <row r="1161" spans="1:1">
-      <c r="A1161" s="2" t="s">
-        <v>1160</v>
-      </c>
+      <c r="A1161"/>
     </row>
     <row r="1162" spans="1:1">
-      <c r="A1162" s="2" t="s">
-        <v>1161</v>
-      </c>
+      <c r="A1162"/>
     </row>
     <row r="1163" spans="1:1">
-      <c r="A1163" s="2" t="s">
-        <v>1162</v>
-      </c>
+      <c r="A1163"/>
     </row>
     <row r="1164" spans="1:1">
-      <c r="A1164" s="2" t="s">
-        <v>1163</v>
-      </c>
+      <c r="A1164"/>
     </row>
     <row r="1165" spans="1:1">
-      <c r="A1165" s="2" t="s">
-        <v>1164</v>
-      </c>
+      <c r="A1165"/>
     </row>
     <row r="1166" spans="1:1">
-      <c r="A1166" s="2" t="s">
-        <v>1165</v>
-      </c>
+      <c r="A1166"/>
     </row>
     <row r="1167" spans="1:1">
-      <c r="A1167" s="2" t="s">
-        <v>1166</v>
-      </c>
+      <c r="A1167"/>
     </row>
     <row r="1168" spans="1:1">
-      <c r="A1168" s="2" t="s">
-        <v>1167</v>
-      </c>
+      <c r="A1168"/>
     </row>
     <row r="1169" spans="1:1">
-      <c r="A1169" s="2" t="s">
-        <v>1168</v>
-      </c>
+      <c r="A1169"/>
     </row>
     <row r="1170" spans="1:1">
-      <c r="A1170" s="2" t="s">
-        <v>1169</v>
-      </c>
+      <c r="A1170"/>
     </row>
     <row r="1171" spans="1:1">
-      <c r="A1171" s="2" t="s">
-        <v>1170</v>
-      </c>
+      <c r="A1171"/>
     </row>
     <row r="1172" spans="1:1">
-      <c r="A1172" s="2" t="s">
-        <v>1171</v>
-      </c>
+      <c r="A1172"/>
     </row>
     <row r="1173" spans="1:1">
-      <c r="A1173" s="2" t="s">
-        <v>1172</v>
-      </c>
+      <c r="A1173"/>
     </row>
     <row r="1174" spans="1:1">
-      <c r="A1174" s="2" t="s">
-        <v>1173</v>
-      </c>
+      <c r="A1174"/>
     </row>
     <row r="1175" spans="1:1">
-      <c r="A1175" s="2" t="s">
-        <v>1174</v>
-      </c>
+      <c r="A1175"/>
     </row>
     <row r="1176" spans="1:1">
-      <c r="A1176" s="2" t="s">
-        <v>1175</v>
-      </c>
+      <c r="A1176"/>
     </row>
     <row r="1177" spans="1:1">
-      <c r="A1177" s="2" t="s">
-        <v>1176</v>
-      </c>
+      <c r="A1177"/>
     </row>
     <row r="1178" spans="1:1">
-      <c r="A1178" s="2" t="s">
-        <v>1177</v>
-      </c>
+      <c r="A1178"/>
     </row>
     <row r="1179" spans="1:1">
-      <c r="A1179" s="2" t="s">
-        <v>1178</v>
-      </c>
+      <c r="A1179"/>
     </row>
     <row r="1180" spans="1:1">
-      <c r="A1180" s="2" t="s">
-        <v>1179</v>
-      </c>
+      <c r="A1180"/>
     </row>
     <row r="1181" spans="1:1">
-      <c r="A1181" s="2" t="s">
-        <v>1180</v>
-      </c>
+      <c r="A1181"/>
     </row>
     <row r="1182" spans="1:1">
-      <c r="A1182" s="2" t="s">
-        <v>1181</v>
-      </c>
+      <c r="A1182"/>
     </row>
     <row r="1183" spans="1:1">
-      <c r="A1183" s="2" t="s">
-        <v>1182</v>
-      </c>
+      <c r="A1183"/>
     </row>
     <row r="1184" spans="1:1">
-      <c r="A1184" s="2" t="s">
-        <v>1183</v>
-      </c>
+      <c r="A1184"/>
     </row>
     <row r="1185" spans="1:1">
-      <c r="A1185" s="2" t="s">
-        <v>1184</v>
-      </c>
+      <c r="A1185"/>
     </row>
     <row r="1186" spans="1:1">
-      <c r="A1186" s="2" t="s">
-        <v>1185</v>
-      </c>
+      <c r="A1186"/>
     </row>
     <row r="1187" spans="1:1">
-      <c r="A1187" s="2" t="s">
-        <v>1186</v>
-      </c>
+      <c r="A1187"/>
     </row>
     <row r="1188" spans="1:1">
-      <c r="A1188" s="2" t="s">
-        <v>1187</v>
-      </c>
+      <c r="A1188"/>
     </row>
     <row r="1189" spans="1:1">
-      <c r="A1189" s="2" t="s">
-        <v>1188</v>
-      </c>
+      <c r="A1189"/>
     </row>
     <row r="1190" spans="1:1">
-      <c r="A1190" s="2" t="s">
-        <v>1189</v>
-      </c>
+      <c r="A1190"/>
     </row>
     <row r="1191" spans="1:1">
-      <c r="A1191" s="2" t="s">
-        <v>1190</v>
-      </c>
+      <c r="A1191"/>
     </row>
     <row r="1192" spans="1:1">
-      <c r="A1192" s="2" t="s">
-        <v>1191</v>
-      </c>
+      <c r="A1192"/>
     </row>
     <row r="1193" spans="1:1">
-      <c r="A1193" s="2" t="s">
-        <v>1192</v>
-      </c>
+      <c r="A1193"/>
     </row>
     <row r="1194" spans="1:1">
-      <c r="A1194" s="2" t="s">
-        <v>1193</v>
-      </c>
+      <c r="A1194"/>
     </row>
     <row r="1195" spans="1:1">
-      <c r="A1195" s="2" t="s">
-        <v>1194</v>
-      </c>
+      <c r="A1195"/>
     </row>
     <row r="1196" spans="1:1">
-      <c r="A1196" s="2" t="s">
-        <v>1195</v>
-      </c>
+      <c r="A1196"/>
     </row>
     <row r="1197" spans="1:1">
-      <c r="A1197" s="2" t="s">
-        <v>1196</v>
-      </c>
+      <c r="A1197"/>
     </row>
     <row r="1198" spans="1:1">
-      <c r="A1198" s="2" t="s">
-        <v>1197</v>
-      </c>
+      <c r="A1198"/>
     </row>
     <row r="1199" spans="1:1">
-      <c r="A1199" s="2" t="s">
-        <v>1198</v>
-      </c>
+      <c r="A1199"/>
     </row>
     <row r="1200" spans="1:1">
-      <c r="A1200" s="2" t="s">
-        <v>1199</v>
-      </c>
+      <c r="A1200"/>
     </row>
     <row r="1201" spans="1:1">
-      <c r="A1201" s="2" t="s">
-        <v>1200</v>
-      </c>
+      <c r="A1201"/>
     </row>
     <row r="1202" spans="1:1">
-      <c r="A1202" s="2" t="s">
-        <v>1201</v>
-      </c>
+      <c r="A1202"/>
     </row>
     <row r="1203" spans="1:1">
-      <c r="A1203" s="2" t="s">
-        <v>1202</v>
-      </c>
+      <c r="A1203"/>
     </row>
     <row r="1204" spans="1:1">
-      <c r="A1204" s="2" t="s">
-        <v>1203</v>
-      </c>
+      <c r="A1204"/>
     </row>
     <row r="1205" spans="1:1">
-      <c r="A1205" s="2" t="s">
-        <v>1204</v>
-      </c>
+      <c r="A1205"/>
     </row>
     <row r="1206" spans="1:1">
-      <c r="A1206" s="2" t="s">
-        <v>1205</v>
-      </c>
+      <c r="A1206"/>
     </row>
     <row r="1207" spans="1:1">
-      <c r="A1207" s="2" t="s">
-        <v>1206</v>
-      </c>
+      <c r="A1207"/>
     </row>
     <row r="1208" spans="1:1">
-      <c r="A1208" s="2" t="s">
-        <v>1207</v>
-      </c>
+      <c r="A1208"/>
     </row>
     <row r="1209" spans="1:1">
-      <c r="A1209" s="2" t="s">
-        <v>1208</v>
-      </c>
+      <c r="A1209"/>
     </row>
     <row r="1210" spans="1:1">
-      <c r="A1210" s="2" t="s">
-        <v>1209</v>
-      </c>
+      <c r="A1210"/>
     </row>
     <row r="1211" spans="1:1">
-      <c r="A1211" s="2" t="s">
-        <v>1210</v>
-      </c>
+      <c r="A1211"/>
     </row>
     <row r="1212" spans="1:1">
-      <c r="A1212" s="2" t="s">
-        <v>1211</v>
-      </c>
+      <c r="A1212"/>
     </row>
     <row r="1213" spans="1:1">
-      <c r="A1213" s="2" t="s">
-        <v>1212</v>
-      </c>
+      <c r="A1213"/>
     </row>
     <row r="1214" spans="1:1">
-      <c r="A1214" s="2" t="s">
-        <v>1213</v>
-      </c>
+      <c r="A1214"/>
     </row>
     <row r="1215" spans="1:1">
-      <c r="A1215" s="2" t="s">
-        <v>1214</v>
-      </c>
+      <c r="A1215"/>
     </row>
     <row r="1216" spans="1:1">
-      <c r="A1216" s="2" t="s">
-        <v>1215</v>
-      </c>
+      <c r="A1216"/>
     </row>
     <row r="1217" spans="1:1">
-      <c r="A1217" s="2" t="s">
-        <v>1216</v>
-      </c>
+      <c r="A1217"/>
     </row>
     <row r="1218" spans="1:1">
-      <c r="A1218" s="2" t="s">
-        <v>1217</v>
-      </c>
+      <c r="A1218"/>
     </row>
     <row r="1219" spans="1:1">
-      <c r="A1219" s="2" t="s">
-        <v>1218</v>
-      </c>
+      <c r="A1219"/>
     </row>
     <row r="1220" spans="1:1">
-      <c r="A1220" s="2" t="s">
-        <v>1219</v>
-      </c>
+      <c r="A1220"/>
     </row>
     <row r="1221" spans="1:1">
-      <c r="A1221" s="2" t="s">
-        <v>1220</v>
-      </c>
+      <c r="A1221"/>
     </row>
     <row r="1222" spans="1:1">
-      <c r="A1222" s="2" t="s">
-        <v>1221</v>
-      </c>
+      <c r="A1222"/>
     </row>
     <row r="1223" spans="1:1">
-      <c r="A1223" s="2" t="s">
-        <v>1222</v>
-      </c>
+      <c r="A1223"/>
     </row>
     <row r="1224" spans="1:1">
-      <c r="A1224" s="2" t="s">
-        <v>1223</v>
-      </c>
+      <c r="A1224"/>
     </row>
     <row r="1225" spans="1:1">
-      <c r="A1225" s="2" t="s">
-        <v>1224</v>
-      </c>
+      <c r="A1225"/>
     </row>
     <row r="1226" spans="1:1">
-      <c r="A1226" s="2" t="s">
-        <v>1225</v>
-      </c>
+      <c r="A1226"/>
     </row>
     <row r="1227" spans="1:1">
-      <c r="A1227" s="2" t="s">
-        <v>1226</v>
-      </c>
+      <c r="A1227"/>
     </row>
     <row r="1228" spans="1:1">
-      <c r="A1228" s="2" t="s">
-        <v>1227</v>
-      </c>
+      <c r="A1228"/>
     </row>
     <row r="1229" spans="1:1">
-      <c r="A1229" s="2" t="s">
-        <v>1228</v>
-      </c>
+      <c r="A1229"/>
     </row>
     <row r="1230" spans="1:1">
-      <c r="A1230" s="2" t="s">
-        <v>1229</v>
-      </c>
+      <c r="A1230"/>
     </row>
     <row r="1231" spans="1:1">
-      <c r="A1231" s="2" t="s">
-        <v>1230</v>
-      </c>
+      <c r="A1231"/>
     </row>
     <row r="1232" spans="1:1">
-      <c r="A1232" s="2" t="s">
-        <v>1231</v>
-      </c>
+      <c r="A1232"/>
     </row>
     <row r="1233" spans="1:1">
-      <c r="A1233" s="2" t="s">
-        <v>1232</v>
-      </c>
+      <c r="A1233"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
